--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="345">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/5,6,10/2022</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1949,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1992,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2056,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2116,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2182,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2245,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2343,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2402,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2467,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2510,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2585,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2771,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2837,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2895,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2961,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3017,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3092,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3135,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3201,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3257,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3352,7 +3355,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3418,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,7 +3484,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K780" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K781" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3859,12 +3862,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K780"/>
+  <dimension ref="A2:K781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2940" topLeftCell="A555" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E565" sqref="E565"/>
+      <selection pane="bottomLeft" activeCell="K561" sqref="K561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,7 +4028,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.65799999999996</v>
+        <v>156.65799999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16491,57 +16494,57 @@
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="49">
-        <v>44715</v>
+      <c r="K561" s="20" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+      <c r="A562" s="40">
+        <v>44713</v>
+      </c>
       <c r="B562" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C562" s="13"/>
-      <c r="D562" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D562" s="39">
+        <v>1</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H562" s="39">
-        <v>3</v>
-      </c>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="49" t="s">
-        <v>341</v>
+      <c r="K562" s="49">
+        <v>44715</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -16552,44 +16555,44 @@
         <v/>
       </c>
       <c r="H563" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="49">
-        <v>44763</v>
+      <c r="K563" s="49" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="C564" s="13"/>
-      <c r="D564" s="39">
-        <v>3</v>
-      </c>
+      <c r="D564" s="39"/>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
       <c r="G564" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H564" s="39"/>
+      <c r="H564" s="39">
+        <v>1</v>
+      </c>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="49" t="s">
-        <v>342</v>
+      <c r="K564" s="49">
+        <v>44763</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
@@ -16600,96 +16603,94 @@
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="49"/>
+      <c r="K565" s="49" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C566" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C566" s="13"/>
       <c r="D566" s="39">
-        <v>0.42499999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="49"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="C567" s="13">
         <v>1.25</v>
       </c>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H567" s="39">
-        <v>2</v>
-      </c>
+      <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20" t="s">
-        <v>332</v>
-      </c>
+      <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>44774</v>
+      </c>
       <c r="B568" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C568" s="13"/>
-      <c r="D568" s="39">
-        <v>0.34399999999999997</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="39"/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H568" s="39">
+        <v>2</v>
+      </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C569" s="13"/>
       <c r="D569" s="39">
-        <v>0.17300000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
@@ -16698,16 +16699,16 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
       </c>
       <c r="D570" s="39">
-        <v>0.25</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
@@ -16722,60 +16723,62 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B571" s="20" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="C571" s="13">
         <v>1.25</v>
       </c>
-      <c r="D571" s="39"/>
+      <c r="D571" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
       <c r="G571" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H571" s="39">
-        <v>1</v>
-      </c>
+      <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="49">
-        <v>44886</v>
-      </c>
+      <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="40">
+        <v>44866</v>
+      </c>
       <c r="B572" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C572" s="13"/>
-      <c r="D572" s="39">
-        <v>3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D572" s="39"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H572" s="39"/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H572" s="39">
+        <v>1</v>
+      </c>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="49" t="s">
-        <v>334</v>
+      <c r="K572" s="49">
+        <v>44886</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39">
-        <v>9.6000000000000002E-2</v>
+        <v>3</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
@@ -16786,61 +16789,65 @@
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="49"/>
+      <c r="K573" s="49" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C574" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D574" s="39"/>
+        <v>210</v>
+      </c>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H574" s="39">
-        <v>1</v>
-      </c>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="49">
-        <v>44900</v>
-      </c>
+      <c r="K574" s="49"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40"/>
+      <c r="A575" s="40">
+        <v>44896</v>
+      </c>
       <c r="B575" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C575" s="13"/>
-      <c r="D575" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D575" s="39"/>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H575" s="39"/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H575" s="39">
+        <v>1</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49"/>
+      <c r="K575" s="49">
+        <v>44900</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B576" s="20"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C576" s="13"/>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13" t="str">
@@ -16850,84 +16857,76 @@
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
+      <c r="K576" s="49"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B577" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C577" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A577" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20" t="s">
-        <v>333</v>
-      </c>
+      <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>44927</v>
+      </c>
       <c r="B578" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C578" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="49">
-        <v>44951</v>
+      <c r="K578" s="20" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C579" s="13">
-        <v>1.25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C579" s="13"/>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H579" s="39">
-        <v>1</v>
-      </c>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
       <c r="K579" s="49">
-        <v>44940</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C580" s="13">
         <v>1.25</v>
@@ -16940,74 +16939,74 @@
         <v>1.25</v>
       </c>
       <c r="H580" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="49" t="s">
-        <v>335</v>
+      <c r="K580" s="49">
+        <v>44940</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>44986</v>
+      </c>
       <c r="B581" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C581" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H581" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="49">
-        <v>45013</v>
+      <c r="K581" s="49" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C582" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D582" s="39">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H582" s="39"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39">
+        <v>1</v>
+      </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20" t="s">
-        <v>336</v>
+      <c r="K582" s="49">
+        <v>45013</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B583" s="20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C583" s="13">
         <v>1.25</v>
       </c>
       <c r="D583" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
@@ -17018,48 +17017,52 @@
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="49">
-        <v>45065</v>
+      <c r="K583" s="20" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B584" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C584" s="13">
         <v>1.25</v>
       </c>
-      <c r="D584" s="39"/>
+      <c r="D584" s="39">
+        <v>1</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
       <c r="G584" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H584" s="39">
-        <v>1</v>
-      </c>
+      <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="49">
-        <v>45086</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40"/>
+      <c r="A585" s="40">
+        <v>45078</v>
+      </c>
       <c r="B585" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C585" s="13"/>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H585" s="39">
         <v>1</v>
@@ -17067,25 +17070,21 @@
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
       <c r="K585" s="49">
-        <v>45096</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C586" s="13"/>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H586" s="39">
         <v>1</v>
@@ -17093,24 +17092,34 @@
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="49">
-        <v>45128</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
-      <c r="B587" s="20"/>
-      <c r="C587" s="13"/>
+      <c r="A587" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H587" s="39"/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H587" s="39">
+        <v>1</v>
+      </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="49">
+        <v>45128</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
@@ -17142,7 +17151,7 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49"/>
+      <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
@@ -17174,7 +17183,7 @@
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="49"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
@@ -17190,7 +17199,7 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49"/>
+      <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
@@ -17206,7 +17215,7 @@
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
+      <c r="K593" s="49"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
@@ -17231,11 +17240,14 @@
       <c r="D595" s="39"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49"/>
+      <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
@@ -17251,7 +17263,7 @@
       <c r="K596" s="49"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="48"/>
+      <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
       <c r="D597" s="39"/>
@@ -17261,10 +17273,10 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="49"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40"/>
+      <c r="A598" s="48"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -17274,7 +17286,7 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49"/>
+      <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
@@ -17287,7 +17299,7 @@
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="49"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
@@ -17300,7 +17312,7 @@
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="49"/>
+      <c r="K600" s="20"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
@@ -17313,7 +17325,7 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="K601" s="49"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
@@ -17339,7 +17351,7 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="49"/>
+      <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
@@ -17365,7 +17377,7 @@
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="49"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
@@ -17417,7 +17429,7 @@
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="49"/>
+      <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
@@ -17443,7 +17455,7 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="20"/>
+      <c r="K611" s="49"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
@@ -17495,7 +17507,7 @@
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="49"/>
+      <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
@@ -17508,7 +17520,7 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
+      <c r="K616" s="49"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
@@ -17573,7 +17585,7 @@
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="49"/>
+      <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
@@ -17586,7 +17598,7 @@
       <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
-      <c r="K622" s="20"/>
+      <c r="K622" s="49"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
@@ -17625,7 +17637,7 @@
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="49"/>
+      <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
@@ -17638,7 +17650,7 @@
       <c r="H626" s="39"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="20"/>
+      <c r="K626" s="49"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
@@ -17654,7 +17666,7 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="48"/>
+      <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -17667,7 +17679,7 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+      <c r="A629" s="48"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17677,7 +17689,7 @@
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="49"/>
+      <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
@@ -17690,7 +17702,7 @@
       <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="49"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
@@ -17703,7 +17715,7 @@
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
-      <c r="K631" s="49"/>
+      <c r="K631" s="20"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
@@ -17729,7 +17741,7 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="49"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
@@ -17742,7 +17754,7 @@
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="49"/>
+      <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
@@ -17755,7 +17767,7 @@
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="49"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
@@ -17901,7 +17913,7 @@
       <c r="K646" s="20"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="48"/>
+      <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
       <c r="D647" s="39"/>
@@ -17914,7 +17926,7 @@
       <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="40"/>
+      <c r="A648" s="48"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
       <c r="D648" s="39"/>
@@ -18070,7 +18082,7 @@
       <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="48"/>
+      <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
       <c r="D660" s="39"/>
@@ -18083,7 +18095,7 @@
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40"/>
+      <c r="A661" s="48"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
       <c r="D661" s="39"/>
@@ -18239,7 +18251,7 @@
       <c r="K672" s="20"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="48"/>
+      <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
       <c r="D673" s="39"/>
@@ -18252,7 +18264,7 @@
       <c r="K673" s="20"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40"/>
+      <c r="A674" s="48"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
       <c r="D674" s="39"/>
@@ -18408,7 +18420,7 @@
       <c r="K685" s="20"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="48"/>
+      <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
       <c r="D686" s="39"/>
@@ -18421,7 +18433,7 @@
       <c r="K686" s="20"/>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="40"/>
+      <c r="A687" s="48"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
       <c r="D687" s="39"/>
@@ -18577,7 +18589,7 @@
       <c r="K698" s="20"/>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" s="48"/>
+      <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
       <c r="D699" s="39"/>
@@ -18590,7 +18602,7 @@
       <c r="K699" s="20"/>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40"/>
+      <c r="A700" s="48"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
       <c r="D700" s="39"/>
@@ -18746,7 +18758,7 @@
       <c r="K711" s="20"/>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="48"/>
+      <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
       <c r="D712" s="39"/>
@@ -18759,7 +18771,7 @@
       <c r="K712" s="20"/>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" s="40"/>
+      <c r="A713" s="48"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
       <c r="D713" s="39"/>
@@ -19519,10 +19531,7 @@
       <c r="D771" s="39"/>
       <c r="E771" s="9"/>
       <c r="F771" s="20"/>
-      <c r="G771" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G771" s="13"/>
       <c r="H771" s="39"/>
       <c r="I771" s="9"/>
       <c r="J771" s="11"/>
@@ -19657,20 +19666,36 @@
       <c r="K779" s="20"/>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A780" s="41"/>
-      <c r="B780" s="15"/>
-      <c r="C780" s="42"/>
-      <c r="D780" s="43"/>
-      <c r="E780" s="51"/>
-      <c r="F780" s="15"/>
-      <c r="G780" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H780" s="43"/>
-      <c r="I780" s="51"/>
-      <c r="J780" s="12"/>
-      <c r="K780" s="15"/>
+      <c r="A780" s="40"/>
+      <c r="B780" s="20"/>
+      <c r="C780" s="13"/>
+      <c r="D780" s="39"/>
+      <c r="E780" s="9"/>
+      <c r="F780" s="20"/>
+      <c r="G780" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H780" s="39"/>
+      <c r="I780" s="9"/>
+      <c r="J780" s="11"/>
+      <c r="K780" s="20"/>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="41"/>
+      <c r="B781" s="15"/>
+      <c r="C781" s="42"/>
+      <c r="D781" s="43"/>
+      <c r="E781" s="51"/>
+      <c r="F781" s="15"/>
+      <c r="G781" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="43"/>
+      <c r="I781" s="51"/>
+      <c r="J781" s="12"/>
+      <c r="K781" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="347">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1069,6 +1069,12 @@
   </si>
   <si>
     <t>5/5,6,10/2022</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-27)</t>
   </si>
 </sst>
 </file>
@@ -3484,7 +3490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K781" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K783" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3862,12 +3868,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K781"/>
+  <dimension ref="A2:M783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2940" topLeftCell="A555" activePane="bottomLeft"/>
-      <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K561" sqref="K561"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2940" topLeftCell="A585" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="I591" sqref="I591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,7 +3891,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +3912,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3930,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3946,7 +3952,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3954,7 +3960,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3967,7 +3973,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3984,7 +3990,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4028,7 +4034,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.65799999999996</v>
+        <v>156.60199999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4038,12 +4044,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.875</v>
+        <v>144.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4061,7 +4068,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4087,7 +4094,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4109,7 +4116,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4129,7 +4136,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4155,7 +4162,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4177,7 +4184,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -16448,249 +16455,245 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D559" s="39"/>
+      <c r="A559" s="40"/>
+      <c r="B559" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39">
+        <v>1</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="49"/>
+      <c r="K559" s="49">
+        <v>44629</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C560" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D560" s="39"/>
+        <v>346</v>
+      </c>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H560" s="39">
-        <v>2</v>
-      </c>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20" t="s">
-        <v>331</v>
-      </c>
+      <c r="K560" s="49"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
-      <c r="B561" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C561" s="13"/>
-      <c r="D561" s="39">
-        <v>3</v>
-      </c>
+      <c r="A561" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20" t="s">
-        <v>344</v>
-      </c>
+      <c r="K561" s="49"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
-      <c r="D562" s="39">
-        <v>1</v>
-      </c>
+      <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H562" s="39"/>
+      <c r="H562" s="39">
+        <v>2</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="49">
-        <v>44715</v>
+      <c r="K562" s="20" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="C563" s="13"/>
-      <c r="D563" s="39"/>
+      <c r="D563" s="39">
+        <v>3</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H563" s="39">
-        <v>3</v>
-      </c>
+      <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="49" t="s">
-        <v>341</v>
+      <c r="K563" s="20" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40"/>
+      <c r="A564" s="40">
+        <v>44713</v>
+      </c>
       <c r="B564" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D564" s="39">
+        <v>1</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H564" s="39">
-        <v>1</v>
-      </c>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
       <c r="K564" s="49">
-        <v>44763</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="C565" s="13"/>
-      <c r="D565" s="39">
-        <v>3</v>
-      </c>
+      <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
       <c r="G565" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H565" s="39"/>
+      <c r="H565" s="39">
+        <v>3</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C566" s="13"/>
-      <c r="D566" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
+      <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>1</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="49"/>
+      <c r="K566" s="49">
+        <v>44763</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C567" s="13">
-        <v>1.25</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C567" s="13"/>
       <c r="D567" s="39">
-        <v>0.42499999999999999</v>
+        <v>3</v>
       </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="49" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D568" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H568" s="39">
-        <v>2</v>
-      </c>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20" t="s">
-        <v>332</v>
-      </c>
+      <c r="K568" s="49"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="40">
+        <v>44743</v>
+      </c>
       <c r="B569" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C569" s="13"/>
+        <v>340</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39">
-        <v>0.34399999999999997</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
@@ -16699,46 +16702,44 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
       </c>
-      <c r="D570" s="39">
-        <v>0.17300000000000001</v>
-      </c>
+      <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
       <c r="G570" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H570" s="39"/>
+      <c r="H570" s="39">
+        <v>2</v>
+      </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C571" s="13"/>
       <c r="D571" s="39">
-        <v>0.25</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
@@ -16747,106 +16748,108 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
-      <c r="D572" s="39"/>
+      <c r="D572" s="39">
+        <v>0.17300000000000001</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
       <c r="G572" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H572" s="39">
-        <v>1</v>
-      </c>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="49">
-        <v>44886</v>
-      </c>
+      <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40"/>
+      <c r="A573" s="40">
+        <v>44835</v>
+      </c>
       <c r="B573" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C573" s="13"/>
+        <v>337</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="49" t="s">
-        <v>334</v>
-      </c>
+      <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>44866</v>
+      </c>
       <c r="B574" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="39"/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H574" s="39">
+        <v>1</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="49"/>
+      <c r="K574" s="49">
+        <v>44886</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C575" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D575" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39">
+        <v>3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H575" s="39">
-        <v>1</v>
-      </c>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49">
-        <v>44900</v>
+      <c r="K575" s="49" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="C576" s="13"/>
       <c r="D576" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
@@ -16860,52 +16863,56 @@
       <c r="K576" s="49"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B577" s="20"/>
-      <c r="C577" s="13"/>
+      <c r="A577" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H577" s="39"/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H577" s="39">
+        <v>1</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="49">
+        <v>44900</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D578" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20" t="s">
-        <v>333</v>
-      </c>
+      <c r="K578" s="49"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
-      <c r="B579" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="A579" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B579" s="20"/>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
@@ -16917,16 +16924,14 @@
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="49">
-        <v>44951</v>
-      </c>
+      <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C580" s="13">
         <v>1.25</v>
@@ -16938,53 +16943,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H580" s="39">
-        <v>1</v>
-      </c>
+      <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="49">
-        <v>44940</v>
+      <c r="K580" s="20" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C581" s="13">
-        <v>1.25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C581" s="13"/>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H581" s="39">
-        <v>2</v>
-      </c>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="49" t="s">
-        <v>335</v>
+      <c r="K581" s="49">
+        <v>44951</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <v>44958</v>
+      </c>
       <c r="B582" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C582" s="13"/>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H582" s="39">
         <v>1</v>
@@ -16992,112 +16993,112 @@
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="49">
-        <v>45013</v>
+        <v>44940</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B583" s="20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C583" s="13">
         <v>1.25</v>
       </c>
-      <c r="D583" s="39">
-        <v>2</v>
-      </c>
+      <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
       <c r="G583" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H583" s="39"/>
+      <c r="H583" s="39">
+        <v>2</v>
+      </c>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20" t="s">
-        <v>336</v>
+      <c r="K583" s="49" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C584" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D584" s="39">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H584" s="39"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39">
+        <v>1</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="49">
-        <v>45065</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B585" s="20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
-      <c r="D585" s="39"/>
+      <c r="D585" s="39">
+        <v>2</v>
+      </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H585" s="39">
-        <v>1</v>
-      </c>
+      <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="49">
-        <v>45086</v>
+      <c r="K585" s="20" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="40">
+        <v>45047</v>
+      </c>
       <c r="B586" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C586" s="13"/>
-      <c r="D586" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H586" s="39">
-        <v>1</v>
-      </c>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="49">
-        <v>45096</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B587" s="20" t="s">
         <v>43</v>
@@ -17118,12 +17119,14 @@
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="49">
-        <v>45128</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
-      <c r="B588" s="20"/>
+      <c r="B588" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
@@ -17132,46 +17135,74 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H588" s="39"/>
+      <c r="H588" s="39">
+        <v>1</v>
+      </c>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20"/>
+      <c r="K588" s="49">
+        <v>45096</v>
+      </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40"/>
-      <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+      <c r="A589" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H589" s="39"/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H589" s="39">
+        <v>1</v>
+      </c>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
+      <c r="K589" s="49">
+        <v>45128</v>
+      </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40"/>
-      <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="A590" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H590" s="39"/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H590" s="39">
+        <v>1</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49"/>
+      <c r="K590" s="49">
+        <v>45142</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40"/>
-      <c r="B591" s="20"/>
+      <c r="A591" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
@@ -17180,10 +17211,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H591" s="39"/>
+      <c r="H591" s="39">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="49"/>
+      <c r="K591" s="49">
+        <v>45177</v>
+      </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
@@ -17199,7 +17234,7 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="49"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
@@ -17247,7 +17282,7 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="49"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
@@ -17256,11 +17291,14 @@
       <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49"/>
+      <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
@@ -17269,14 +17307,17 @@
       <c r="D597" s="39"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13"/>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49"/>
+      <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="48"/>
+      <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -17286,7 +17327,7 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
+      <c r="K598" s="49"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
@@ -17302,7 +17343,7 @@
       <c r="K599" s="49"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="40"/>
+      <c r="A600" s="48"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
@@ -17351,7 +17392,7 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="49"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
@@ -17364,7 +17405,7 @@
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="49"/>
+      <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
@@ -17377,7 +17418,7 @@
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="49"/>
+      <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
@@ -17390,7 +17431,7 @@
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="49"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
@@ -17403,7 +17444,7 @@
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="49"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
@@ -17442,7 +17483,7 @@
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="49"/>
+      <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
@@ -17455,7 +17496,7 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="49"/>
+      <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
@@ -17468,7 +17509,7 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="20"/>
+      <c r="K612" s="49"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
@@ -17481,7 +17522,7 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="20"/>
+      <c r="K613" s="49"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
@@ -17520,7 +17561,7 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="49"/>
+      <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
@@ -17546,7 +17587,7 @@
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
-      <c r="K618" s="20"/>
+      <c r="K618" s="49"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
@@ -17598,7 +17639,7 @@
       <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
-      <c r="K622" s="49"/>
+      <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
@@ -17624,7 +17665,7 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="20"/>
+      <c r="K624" s="49"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
@@ -17650,7 +17691,7 @@
       <c r="H626" s="39"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="49"/>
+      <c r="K626" s="20"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
@@ -17676,10 +17717,10 @@
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="20"/>
+      <c r="K628" s="49"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="48"/>
+      <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -17702,10 +17743,10 @@
       <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="49"/>
+      <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40"/>
+      <c r="A631" s="48"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
       <c r="D631" s="39"/>
@@ -17741,7 +17782,7 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="49"/>
+      <c r="K633" s="20"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
@@ -17754,7 +17795,7 @@
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
+      <c r="K634" s="49"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
@@ -17793,7 +17834,7 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
@@ -17926,7 +17967,7 @@
       <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="48"/>
+      <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
       <c r="D648" s="39"/>
@@ -17952,7 +17993,7 @@
       <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="40"/>
+      <c r="A650" s="48"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
       <c r="D650" s="39"/>
@@ -18095,7 +18136,7 @@
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="48"/>
+      <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
       <c r="D661" s="39"/>
@@ -18121,7 +18162,7 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40"/>
+      <c r="A663" s="48"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="39"/>
@@ -18264,7 +18305,7 @@
       <c r="K673" s="20"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="48"/>
+      <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
       <c r="D674" s="39"/>
@@ -18290,7 +18331,7 @@
       <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="40"/>
+      <c r="A676" s="48"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
       <c r="D676" s="39"/>
@@ -18433,7 +18474,7 @@
       <c r="K686" s="20"/>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" s="48"/>
+      <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
       <c r="D687" s="39"/>
@@ -18459,7 +18500,7 @@
       <c r="K688" s="20"/>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" s="40"/>
+      <c r="A689" s="48"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
       <c r="D689" s="39"/>
@@ -18602,7 +18643,7 @@
       <c r="K699" s="20"/>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="48"/>
+      <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
       <c r="D700" s="39"/>
@@ -18628,7 +18669,7 @@
       <c r="K701" s="20"/>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40"/>
+      <c r="A702" s="48"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
       <c r="D702" s="39"/>
@@ -18771,7 +18812,7 @@
       <c r="K712" s="20"/>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" s="48"/>
+      <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
       <c r="D713" s="39"/>
@@ -18797,7 +18838,7 @@
       <c r="K714" s="20"/>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40"/>
+      <c r="A715" s="48"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
@@ -19544,10 +19585,7 @@
       <c r="D772" s="39"/>
       <c r="E772" s="9"/>
       <c r="F772" s="20"/>
-      <c r="G772" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G772" s="13"/>
       <c r="H772" s="39"/>
       <c r="I772" s="9"/>
       <c r="J772" s="11"/>
@@ -19560,10 +19598,7 @@
       <c r="D773" s="39"/>
       <c r="E773" s="9"/>
       <c r="F773" s="20"/>
-      <c r="G773" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G773" s="13"/>
       <c r="H773" s="39"/>
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
@@ -19682,20 +19717,52 @@
       <c r="K780" s="20"/>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" s="41"/>
-      <c r="B781" s="15"/>
-      <c r="C781" s="42"/>
-      <c r="D781" s="43"/>
-      <c r="E781" s="51"/>
-      <c r="F781" s="15"/>
-      <c r="G781" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H781" s="43"/>
-      <c r="I781" s="51"/>
-      <c r="J781" s="12"/>
-      <c r="K781" s="15"/>
+      <c r="A781" s="40"/>
+      <c r="B781" s="20"/>
+      <c r="C781" s="13"/>
+      <c r="D781" s="39"/>
+      <c r="E781" s="9"/>
+      <c r="F781" s="20"/>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="39"/>
+      <c r="I781" s="9"/>
+      <c r="J781" s="11"/>
+      <c r="K781" s="20"/>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="40"/>
+      <c r="B782" s="20"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="20"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39"/>
+      <c r="I782" s="9"/>
+      <c r="J782" s="11"/>
+      <c r="K782" s="20"/>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="41"/>
+      <c r="B783" s="15"/>
+      <c r="C783" s="42"/>
+      <c r="D783" s="43"/>
+      <c r="E783" s="51"/>
+      <c r="F783" s="15"/>
+      <c r="G783" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H783" s="43"/>
+      <c r="I783" s="51"/>
+      <c r="J783" s="12"/>
+      <c r="K783" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19811,14 +19878,14 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314731A-FECF-439E-9C97-BDFF773E164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="356">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1094,12 +1093,21 @@
   </si>
   <si>
     <t>12/4,14,18/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1974,7 +1982,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2025,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2089,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2149,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2215,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2278,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2376,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2435,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2500,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2543,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2618,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2804,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2870,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2928,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2994,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3050,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3125,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3168,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3234,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3290,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3388,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3451,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3500,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3509,25 +3517,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K787" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K792" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3539,13 +3547,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3554,14 +3562,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3865,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3875,7 +3883,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3883,34 +3891,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M787"/>
+  <dimension ref="A2:M792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2940" topLeftCell="A591" activePane="bottomLeft"/>
-      <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="H598" sqref="H598"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A582" activePane="bottomLeft"/>
+      <selection activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F599" sqref="F599"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3931,7 +3939,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3951,7 +3959,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +3981,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3981,7 +3989,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3994,7 +4002,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4011,7 +4019,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4055,7 +4063,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.35199999999998</v>
+        <v>156.88200000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4065,13 +4073,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.875</v>
+        <v>144.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4089,7 +4097,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4115,7 +4123,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4137,7 +4145,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4157,7 +4165,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4183,7 +4191,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4205,7 +4213,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -4225,7 +4233,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
@@ -4273,7 +4281,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -4295,7 +4303,7 @@
         <v>36059</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4317,7 +4325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4337,7 +4345,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36069</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -4385,7 +4393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4407,7 +4415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4427,7 +4435,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>43</v>
@@ -4475,7 +4483,7 @@
         <v>36119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4495,7 +4503,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -4541,7 +4549,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4559,7 +4567,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>43</v>
@@ -4607,7 +4615,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>83</v>
@@ -4627,7 +4635,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36192</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>47</v>
@@ -4675,7 +4683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>85</v>
@@ -4721,7 +4729,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36251</v>
       </c>
@@ -4747,7 +4755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36281</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -4795,7 +4803,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>43</v>
@@ -4817,7 +4825,7 @@
         <v>36304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36312</v>
       </c>
@@ -4843,7 +4851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>43</v>
@@ -4865,7 +4873,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>88</v>
@@ -4885,7 +4893,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4911,7 +4919,7 @@
         <v>36350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4933,7 +4941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>88</v>
@@ -4953,7 +4961,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36373</v>
       </c>
@@ -4973,7 +4981,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36404</v>
       </c>
@@ -4997,7 +5005,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36434</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -5043,7 +5051,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36465</v>
       </c>
@@ -5069,7 +5077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36495</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>59</v>
       </c>
@@ -5113,7 +5121,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5163,7 +5171,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5189,7 +5197,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>97</v>
@@ -5209,7 +5217,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>43</v>
@@ -5257,7 +5265,7 @@
         <v>36274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5283,7 +5291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>43</v>
@@ -5305,7 +5313,7 @@
         <v>36305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>88</v>
@@ -5325,7 +5333,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36678</v>
       </c>
@@ -5351,7 +5359,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>43</v>
@@ -5373,7 +5381,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36708</v>
       </c>
@@ -5393,7 +5401,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>36762</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -5441,7 +5449,7 @@
         <v>36768</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>88</v>
@@ -5461,7 +5469,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -5481,7 +5489,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -5505,7 +5513,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5531,7 +5539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -5555,7 +5563,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>60</v>
       </c>
@@ -5573,7 +5581,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -5597,7 +5605,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>102</v>
@@ -5617,7 +5625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5637,7 +5645,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36923</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36951</v>
       </c>
@@ -5683,7 +5691,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36982</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37012</v>
       </c>
@@ -5729,7 +5737,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5755,7 +5763,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37073</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -5801,7 +5809,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>107</v>
@@ -5847,7 +5855,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>43</v>
@@ -5895,7 +5903,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>101</v>
@@ -5915,7 +5923,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37165</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -5961,7 +5969,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37196</v>
       </c>
@@ -5987,7 +5995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37226</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>88</v>
@@ -6033,7 +6041,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>61</v>
       </c>
@@ -6051,7 +6059,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -6077,7 +6085,7 @@
         <v>37274</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6097,7 +6105,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6117,7 +6125,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37288</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -6163,7 +6171,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37316</v>
       </c>
@@ -6187,7 +6195,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37347</v>
       </c>
@@ -6213,7 +6221,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>43</v>
@@ -6235,7 +6243,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6255,7 +6263,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37377</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>37385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -6303,7 +6311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -6323,7 +6331,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37408</v>
       </c>
@@ -6347,7 +6355,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37438</v>
       </c>
@@ -6373,7 +6381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37469</v>
       </c>
@@ -6393,7 +6401,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37500</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>88</v>
@@ -6439,7 +6447,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -6463,7 +6471,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -6489,7 +6497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -6513,7 +6521,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>62</v>
       </c>
@@ -6531,7 +6539,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6575,7 +6583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>108</v>
@@ -6595,7 +6603,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37653</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -6641,7 +6649,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37681</v>
       </c>
@@ -6665,7 +6673,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37712</v>
       </c>
@@ -6685,7 +6693,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37742</v>
       </c>
@@ -6711,7 +6719,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>102</v>
@@ -6731,7 +6739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>43</v>
@@ -6753,7 +6761,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>43</v>
@@ -6775,7 +6783,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6801,7 +6809,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6821,7 +6829,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37803</v>
       </c>
@@ -6847,7 +6855,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6867,7 +6875,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37834</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37865</v>
       </c>
@@ -6919,7 +6927,7 @@
         <v>37886</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>122</v>
@@ -6939,7 +6947,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37895</v>
       </c>
@@ -6965,7 +6973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>43</v>
@@ -6987,7 +6995,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -7007,7 +7015,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -7027,7 +7035,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7053,7 +7061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>43</v>
@@ -7075,7 +7083,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>130</v>
@@ -7095,7 +7103,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>63</v>
       </c>
@@ -7113,7 +7121,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37987</v>
       </c>
@@ -7137,7 +7145,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>110</v>
@@ -7157,7 +7165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>102</v>
@@ -7177,7 +7185,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38018</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>38027</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>47</v>
@@ -7225,7 +7233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>135</v>
@@ -7245,7 +7253,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7271,7 +7279,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>137</v>
@@ -7291,7 +7299,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38078</v>
       </c>
@@ -7317,7 +7325,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>43</v>
@@ -7339,7 +7347,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>90</v>
@@ -7361,7 +7369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>108</v>
@@ -7381,7 +7389,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38108</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>55</v>
@@ -7429,7 +7437,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>141</v>
@@ -7449,7 +7457,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="49"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38139</v>
       </c>
@@ -7473,7 +7481,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38169</v>
       </c>
@@ -7499,7 +7507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>144</v>
@@ -7519,7 +7527,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38200</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7567,7 +7575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7587,7 +7595,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38231</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7633,7 +7641,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38261</v>
       </c>
@@ -7657,7 +7665,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38292</v>
       </c>
@@ -7683,7 +7691,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>43</v>
@@ -7705,7 +7713,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>150</v>
@@ -7725,7 +7733,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="49"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38322</v>
       </c>
@@ -7751,7 +7759,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>151</v>
@@ -7773,7 +7781,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7793,7 +7801,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>64</v>
       </c>
@@ -7811,7 +7819,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38353</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>102</v>
@@ -7855,7 +7863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>128</v>
@@ -7875,7 +7883,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>102</v>
@@ -7895,7 +7903,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38384</v>
       </c>
@@ -7919,7 +7927,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38412</v>
       </c>
@@ -7945,7 +7953,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>43</v>
@@ -7967,7 +7975,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>43</v>
@@ -7989,7 +7997,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>151</v>
@@ -8011,7 +8019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>43</v>
@@ -8033,7 +8041,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>132</v>
@@ -8053,7 +8061,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="49"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38443</v>
       </c>
@@ -8079,7 +8087,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -8101,7 +8109,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>160</v>
@@ -8121,7 +8129,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38473</v>
       </c>
@@ -8147,7 +8155,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>43</v>
@@ -8169,7 +8177,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>43</v>
@@ -8191,7 +8199,7 @@
         <v>38496</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>157</v>
@@ -8211,7 +8219,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38504</v>
       </c>
@@ -8237,7 +8245,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38534</v>
       </c>
@@ -8261,7 +8269,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -8285,7 +8293,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>38596</v>
       </c>
@@ -8309,7 +8317,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38626</v>
       </c>
@@ -8335,7 +8343,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8355,7 +8363,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38657</v>
       </c>
@@ -8379,7 +8387,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>38687</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>159</v>
@@ -8427,7 +8435,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>43</v>
@@ -8449,7 +8457,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8471,7 +8479,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>168</v>
@@ -8491,7 +8499,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -8509,7 +8517,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38718</v>
       </c>
@@ -8533,7 +8541,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38749</v>
       </c>
@@ -8557,7 +8565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>43</v>
@@ -8579,7 +8587,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -8599,7 +8607,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38777</v>
       </c>
@@ -8625,7 +8633,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>172</v>
@@ -8645,7 +8653,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="49"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38808</v>
       </c>
@@ -8671,7 +8679,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8691,7 +8699,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38838</v>
       </c>
@@ -8717,7 +8725,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>174</v>
@@ -8737,7 +8745,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38869</v>
       </c>
@@ -8761,7 +8769,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38899</v>
       </c>
@@ -8787,7 +8795,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>176</v>
@@ -8807,7 +8815,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38930</v>
       </c>
@@ -8831,7 +8839,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38961</v>
       </c>
@@ -8857,7 +8865,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>43</v>
@@ -8879,7 +8887,7 @@
         <v>38978</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>166</v>
@@ -8899,7 +8907,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38991</v>
       </c>
@@ -8925,7 +8933,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>43</v>
@@ -8947,7 +8955,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>178</v>
@@ -8967,7 +8975,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39022</v>
       </c>
@@ -8993,7 +9001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>43</v>
@@ -9015,7 +9023,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>159</v>
@@ -9037,7 +9045,7 @@
         <v>39079</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -9057,7 +9065,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39052</v>
       </c>
@@ -9083,7 +9091,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>43</v>
@@ -9105,7 +9113,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>182</v>
@@ -9125,7 +9133,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>66</v>
       </c>
@@ -9143,7 +9151,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39083</v>
       </c>
@@ -9169,7 +9177,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>170</v>
@@ -9189,7 +9197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>90</v>
@@ -9211,7 +9219,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>183</v>
@@ -9231,7 +9239,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39114</v>
       </c>
@@ -9257,7 +9265,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9277,7 +9285,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39142</v>
       </c>
@@ -9303,7 +9311,7 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -9323,7 +9331,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39173</v>
       </c>
@@ -9349,7 +9357,7 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>159</v>
@@ -9371,7 +9379,7 @@
         <v>39190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>159</v>
@@ -9393,7 +9401,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>43</v>
@@ -9415,7 +9423,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9435,7 +9443,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>39203</v>
       </c>
@@ -9461,7 +9469,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9483,7 +9491,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>159</v>
@@ -9505,7 +9513,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>191</v>
@@ -9525,7 +9533,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39234</v>
       </c>
@@ -9549,7 +9557,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39264</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>43</v>
@@ -9597,7 +9605,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>99</v>
@@ -9617,7 +9625,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39295</v>
       </c>
@@ -9643,7 +9651,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>43</v>
@@ -9665,7 +9673,7 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>194</v>
@@ -9685,7 +9693,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39326</v>
       </c>
@@ -9711,7 +9719,7 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9731,7 +9739,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39356</v>
       </c>
@@ -9757,7 +9765,7 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>196</v>
@@ -9777,7 +9785,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39387</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>197</v>
@@ -9823,7 +9831,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39417</v>
       </c>
@@ -9847,7 +9855,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>67</v>
       </c>
@@ -9865,7 +9873,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9889,7 +9897,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>102</v>
@@ -9909,7 +9917,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -9929,7 +9937,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39479</v>
       </c>
@@ -9955,7 +9963,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -9975,7 +9983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39508</v>
       </c>
@@ -10001,7 +10009,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>202</v>
@@ -10021,7 +10029,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39539</v>
       </c>
@@ -10047,7 +10055,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>43</v>
@@ -10069,7 +10077,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -10091,7 +10099,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39569</v>
       </c>
@@ -10115,7 +10123,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39600</v>
       </c>
@@ -10139,7 +10147,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39630</v>
       </c>
@@ -10165,7 +10173,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10185,7 +10193,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39661</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>88</v>
@@ -10231,7 +10239,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39692</v>
       </c>
@@ -10255,7 +10263,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39722</v>
       </c>
@@ -10281,7 +10289,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>179</v>
@@ -10303,7 +10311,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39753</v>
       </c>
@@ -10329,7 +10337,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>210</v>
@@ -10349,7 +10357,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>39783</v>
       </c>
@@ -10375,7 +10383,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>68</v>
       </c>
@@ -10393,7 +10401,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10417,7 +10425,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -10437,7 +10445,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>39845</v>
       </c>
@@ -10461,7 +10469,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39873</v>
       </c>
@@ -10485,7 +10493,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>108</v>
@@ -10505,7 +10513,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39904</v>
       </c>
@@ -10531,7 +10539,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>159</v>
@@ -10553,7 +10561,7 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10573,7 +10581,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39934</v>
       </c>
@@ -10597,7 +10605,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39965</v>
       </c>
@@ -10621,7 +10629,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="49"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39995</v>
       </c>
@@ -10647,7 +10655,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>159</v>
@@ -10669,7 +10677,7 @@
         <v>40031</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>107</v>
@@ -10689,7 +10697,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -10713,7 +10721,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -10739,7 +10747,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -10761,7 +10769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>101</v>
@@ -10781,7 +10789,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40087</v>
       </c>
@@ -10807,7 +10815,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>219</v>
@@ -10827,7 +10835,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>40118</v>
       </c>
@@ -10853,7 +10861,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>43</v>
@@ -10875,7 +10883,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>88</v>
@@ -10895,7 +10903,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40148</v>
       </c>
@@ -10921,7 +10929,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>222</v>
@@ -10941,7 +10949,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>69</v>
       </c>
@@ -10959,7 +10967,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40179</v>
       </c>
@@ -10983,7 +10991,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>224</v>
@@ -11003,7 +11011,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40210</v>
       </c>
@@ -11029,7 +11037,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>102</v>
@@ -11049,7 +11057,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40238</v>
       </c>
@@ -11075,7 +11083,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>102</v>
@@ -11095,7 +11103,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>43</v>
@@ -11117,7 +11125,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>226</v>
@@ -11137,7 +11145,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -11157,7 +11165,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40299</v>
       </c>
@@ -11183,7 +11191,7 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>229</v>
@@ -11203,7 +11211,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40330</v>
       </c>
@@ -11229,7 +11237,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>43</v>
@@ -11251,7 +11259,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -11271,7 +11279,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40360</v>
       </c>
@@ -11291,7 +11299,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40391</v>
       </c>
@@ -11317,7 +11325,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>215</v>
@@ -11337,7 +11345,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>40422</v>
       </c>
@@ -11357,7 +11365,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40452</v>
       </c>
@@ -11381,7 +11389,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40483</v>
       </c>
@@ -11407,7 +11415,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>43</v>
@@ -11429,7 +11437,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>179</v>
@@ -11451,7 +11459,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>230</v>
@@ -11471,7 +11479,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40513</v>
       </c>
@@ -11497,7 +11505,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11517,7 +11525,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
         <v>70</v>
       </c>
@@ -11535,7 +11543,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>40544</v>
       </c>
@@ -11559,7 +11567,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>102</v>
@@ -11579,7 +11587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>102</v>
@@ -11599,7 +11607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40575</v>
       </c>
@@ -11625,7 +11633,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40603</v>
       </c>
@@ -11651,7 +11659,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40634</v>
       </c>
@@ -11677,7 +11685,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>88</v>
@@ -11697,7 +11705,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40664</v>
       </c>
@@ -11723,7 +11731,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>43</v>
@@ -11745,7 +11753,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>108</v>
@@ -11765,7 +11773,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40695</v>
       </c>
@@ -11791,7 +11799,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>237</v>
@@ -11811,7 +11819,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>40725</v>
       </c>
@@ -11837,7 +11845,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40756</v>
       </c>
@@ -11863,7 +11871,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40787</v>
       </c>
@@ -11887,7 +11895,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40817</v>
       </c>
@@ -11913,7 +11921,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>43</v>
@@ -11935,7 +11943,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>40848</v>
       </c>
@@ -11961,7 +11969,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11983,7 +11991,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>179</v>
@@ -12005,7 +12013,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>239</v>
@@ -12027,7 +12035,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>40878</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>115</v>
@@ -12073,7 +12081,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>71</v>
       </c>
@@ -12091,7 +12099,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40909</v>
       </c>
@@ -12115,7 +12123,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>244</v>
@@ -12135,7 +12143,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40940</v>
       </c>
@@ -12155,7 +12163,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="49"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40969</v>
       </c>
@@ -12181,7 +12189,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>102</v>
@@ -12201,7 +12209,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>151</v>
@@ -12223,7 +12231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41000</v>
       </c>
@@ -12243,7 +12251,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41030</v>
       </c>
@@ -12269,7 +12277,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>43</v>
@@ -12291,7 +12299,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>249</v>
@@ -12311,7 +12319,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41061</v>
       </c>
@@ -12331,7 +12339,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="49"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41091</v>
       </c>
@@ -12357,7 +12365,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41122</v>
       </c>
@@ -12377,7 +12385,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41153</v>
       </c>
@@ -12403,7 +12411,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>251</v>
@@ -12423,7 +12431,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="49"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41183</v>
       </c>
@@ -12449,7 +12457,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>88</v>
@@ -12469,7 +12477,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41214</v>
       </c>
@@ -12495,7 +12503,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41244</v>
       </c>
@@ -12521,7 +12529,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>101</v>
@@ -12541,7 +12549,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
         <v>72</v>
       </c>
@@ -12559,7 +12567,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41275</v>
       </c>
@@ -12579,7 +12587,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41306</v>
       </c>
@@ -12605,7 +12613,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -12625,7 +12633,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>110</v>
@@ -12645,7 +12653,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12665,7 +12673,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -12685,7 +12693,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="49"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -12711,7 +12719,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41395</v>
       </c>
@@ -12731,7 +12739,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41426</v>
       </c>
@@ -12755,7 +12763,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41456</v>
       </c>
@@ -12775,7 +12783,7 @@
       <c r="J394" s="12"/>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>41487</v>
       </c>
@@ -12801,7 +12809,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41518</v>
       </c>
@@ -12827,7 +12835,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -12847,7 +12855,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41579</v>
       </c>
@@ -12873,7 +12881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41609</v>
       </c>
@@ -12893,7 +12901,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="48" t="s">
         <v>73</v>
       </c>
@@ -12911,7 +12919,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41640</v>
       </c>
@@ -12931,7 +12939,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41671</v>
       </c>
@@ -12955,7 +12963,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>102</v>
@@ -12975,7 +12983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41699</v>
       </c>
@@ -12995,7 +13003,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41730</v>
       </c>
@@ -13015,7 +13023,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41760</v>
       </c>
@@ -13035,7 +13043,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41791</v>
       </c>
@@ -13061,7 +13069,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>43</v>
@@ -13081,7 +13089,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41821</v>
       </c>
@@ -13107,7 +13115,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41852</v>
       </c>
@@ -13127,7 +13135,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41883</v>
       </c>
@@ -13153,7 +13161,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41913</v>
       </c>
@@ -13173,7 +13181,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41944</v>
       </c>
@@ -13199,7 +13207,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>151</v>
@@ -13221,7 +13229,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>43</v>
@@ -13243,7 +13251,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41974</v>
       </c>
@@ -13263,7 +13271,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>74</v>
       </c>
@@ -13281,7 +13289,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42005</v>
       </c>
@@ -13305,7 +13313,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>102</v>
@@ -13325,7 +13333,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>88</v>
@@ -13345,7 +13353,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -13371,7 +13379,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -13395,7 +13403,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -13417,7 +13425,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42095</v>
       </c>
@@ -13437,7 +13445,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42125</v>
       </c>
@@ -13463,7 +13471,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42156</v>
       </c>
@@ -13489,7 +13497,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>47</v>
@@ -13511,7 +13519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42186</v>
       </c>
@@ -13537,7 +13545,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>43</v>
@@ -13559,7 +13567,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42217</v>
       </c>
@@ -13585,7 +13593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>90</v>
@@ -13607,7 +13615,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>55</v>
@@ -13629,7 +13637,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42248</v>
       </c>
@@ -13649,7 +13657,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42278</v>
       </c>
@@ -13675,7 +13683,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>43</v>
@@ -13723,7 +13731,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>43</v>
@@ -13745,7 +13753,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>42339</v>
       </c>
@@ -13765,7 +13773,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>75</v>
       </c>
@@ -13783,7 +13791,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42370</v>
       </c>
@@ -13807,7 +13815,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>102</v>
@@ -13827,7 +13835,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>102</v>
@@ -13847,7 +13855,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42401</v>
       </c>
@@ -13867,7 +13875,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42430</v>
       </c>
@@ -13893,7 +13901,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -13915,7 +13923,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42461</v>
       </c>
@@ -13941,7 +13949,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42491</v>
       </c>
@@ -13961,7 +13969,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42522</v>
       </c>
@@ -13981,7 +13989,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42552</v>
       </c>
@@ -14001,7 +14009,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42583</v>
       </c>
@@ -14021,7 +14029,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42614</v>
       </c>
@@ -14041,7 +14049,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42644</v>
       </c>
@@ -14067,7 +14075,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42675</v>
       </c>
@@ -14093,7 +14101,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -14115,7 +14123,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42705</v>
       </c>
@@ -14141,7 +14149,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>76</v>
       </c>
@@ -14159,7 +14167,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42736</v>
       </c>
@@ -14183,7 +14191,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42767</v>
       </c>
@@ -14207,7 +14215,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42795</v>
       </c>
@@ -14233,7 +14241,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>43</v>
@@ -14255,7 +14263,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42826</v>
       </c>
@@ -14281,7 +14289,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>43</v>
@@ -14303,7 +14311,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>42856</v>
       </c>
@@ -14329,7 +14337,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42887</v>
       </c>
@@ -14355,7 +14363,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -14377,7 +14385,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42917</v>
       </c>
@@ -14397,7 +14405,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>42948</v>
       </c>
@@ -14423,7 +14431,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>42979</v>
       </c>
@@ -14449,7 +14457,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43009</v>
       </c>
@@ -14475,7 +14483,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43040</v>
       </c>
@@ -14501,7 +14509,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>55</v>
@@ -14523,7 +14531,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -14545,7 +14553,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43070</v>
       </c>
@@ -14571,7 +14579,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
         <v>77</v>
       </c>
@@ -14589,7 +14597,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -14613,7 +14621,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>102</v>
@@ -14633,7 +14641,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43132</v>
       </c>
@@ -14659,7 +14667,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43160</v>
       </c>
@@ -14679,7 +14687,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="49"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43191</v>
       </c>
@@ -14705,7 +14713,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>43</v>
@@ -14727,7 +14735,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43221</v>
       </c>
@@ -14753,7 +14761,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14775,7 +14783,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43252</v>
       </c>
@@ -14801,7 +14809,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43282</v>
       </c>
@@ -14827,7 +14835,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43313</v>
       </c>
@@ -14847,7 +14855,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43344</v>
       </c>
@@ -14867,7 +14875,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43374</v>
       </c>
@@ -14893,7 +14901,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -14919,7 +14927,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -14939,7 +14947,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>78</v>
       </c>
@@ -14957,7 +14965,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43466</v>
       </c>
@@ -14981,7 +14989,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>43</v>
@@ -15003,7 +15011,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -15029,7 +15037,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>102</v>
@@ -15049,7 +15057,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>43</v>
@@ -15071,7 +15079,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15095,7 +15103,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15121,7 +15129,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>43</v>
@@ -15143,7 +15151,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43586</v>
       </c>
@@ -15169,7 +15177,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43617</v>
       </c>
@@ -15195,7 +15203,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>43</v>
@@ -15217,7 +15225,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43647</v>
       </c>
@@ -15243,7 +15251,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>43</v>
@@ -15265,7 +15273,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43678</v>
       </c>
@@ -15291,7 +15299,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>47</v>
@@ -15313,7 +15321,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>43</v>
@@ -15335,7 +15343,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>43</v>
@@ -15357,7 +15365,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>43</v>
@@ -15379,7 +15387,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43709</v>
       </c>
@@ -15403,7 +15411,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>301</v>
@@ -15425,7 +15433,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
@@ -15451,7 +15459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>304</v>
@@ -15473,7 +15481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>43</v>
@@ -15495,7 +15503,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43770</v>
       </c>
@@ -15521,7 +15529,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>43</v>
@@ -15543,7 +15551,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15565,7 +15573,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>55</v>
@@ -15587,7 +15595,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>47</v>
@@ -15609,7 +15617,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43800</v>
       </c>
@@ -15629,7 +15637,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>79</v>
       </c>
@@ -15647,7 +15655,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43831</v>
       </c>
@@ -15671,7 +15679,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>309</v>
@@ -15691,7 +15699,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>110</v>
@@ -15711,7 +15719,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43862</v>
       </c>
@@ -15737,7 +15745,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43891</v>
       </c>
@@ -15757,7 +15765,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43922</v>
       </c>
@@ -15777,7 +15785,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="49"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43952</v>
       </c>
@@ -15797,7 +15805,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="49"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43983</v>
       </c>
@@ -15823,7 +15831,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -15845,7 +15853,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44013</v>
       </c>
@@ -15871,7 +15879,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>90</v>
@@ -15893,7 +15901,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44044</v>
       </c>
@@ -15913,7 +15921,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44075</v>
       </c>
@@ -15933,7 +15941,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44105</v>
       </c>
@@ -15953,7 +15961,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="49"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44136</v>
       </c>
@@ -15973,7 +15981,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44166</v>
       </c>
@@ -15999,7 +16007,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="48" t="s">
         <v>80</v>
       </c>
@@ -16017,7 +16025,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44197</v>
       </c>
@@ -16041,7 +16049,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44228</v>
       </c>
@@ -16067,7 +16075,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44256</v>
       </c>
@@ -16087,7 +16095,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44287</v>
       </c>
@@ -16107,7 +16115,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44317</v>
       </c>
@@ -16127,7 +16135,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44348</v>
       </c>
@@ -16153,7 +16161,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>102</v>
@@ -16173,7 +16181,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16193,7 +16201,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16213,7 +16221,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16239,7 +16247,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>319</v>
@@ -16259,7 +16267,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44470</v>
       </c>
@@ -16279,7 +16287,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44501</v>
       </c>
@@ -16303,7 +16311,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
@@ -16329,7 +16337,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>90</v>
@@ -16349,7 +16357,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="48" t="s">
         <v>81</v>
       </c>
@@ -16367,7 +16375,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44562</v>
       </c>
@@ -16387,7 +16395,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44593</v>
       </c>
@@ -16407,7 +16415,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44621</v>
       </c>
@@ -16431,7 +16439,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>47</v>
@@ -16453,7 +16461,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>327</v>
@@ -16475,7 +16483,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>344</v>
@@ -16497,7 +16505,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>345</v>
@@ -16517,7 +16525,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="49"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -16537,7 +16545,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44682</v>
       </c>
@@ -16563,7 +16571,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>342</v>
@@ -16585,7 +16593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44713</v>
       </c>
@@ -16611,7 +16619,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>90</v>
@@ -16633,7 +16641,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>43</v>
@@ -16655,7 +16663,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>342</v>
@@ -16677,7 +16685,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>44</v>
@@ -16697,7 +16705,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="49"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
@@ -16721,7 +16729,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -16747,7 +16755,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>338</v>
@@ -16767,7 +16775,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44805</v>
       </c>
@@ -16791,7 +16799,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44835</v>
       </c>
@@ -16815,7 +16823,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44866</v>
       </c>
@@ -16841,7 +16849,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>94</v>
@@ -16863,7 +16871,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>210</v>
@@ -16883,7 +16891,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="49"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44896</v>
       </c>
@@ -16909,7 +16917,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>44</v>
@@ -16929,7 +16937,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="48" t="s">
         <v>82</v>
       </c>
@@ -16947,7 +16955,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44927</v>
       </c>
@@ -16971,7 +16979,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>102</v>
@@ -16991,7 +16999,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44958</v>
       </c>
@@ -17017,7 +17025,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44986</v>
       </c>
@@ -17043,7 +17051,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>43</v>
@@ -17065,7 +17073,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45017</v>
       </c>
@@ -17091,7 +17099,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45047</v>
       </c>
@@ -17117,7 +17125,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45078</v>
       </c>
@@ -17143,7 +17151,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>43</v>
@@ -17165,7 +17173,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45108</v>
       </c>
@@ -17191,35 +17199,29 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="40">
-        <v>45139</v>
-      </c>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C590" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D590" s="39"/>
+        <v>355</v>
+      </c>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H590" s="39">
-        <v>1</v>
-      </c>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K590" s="49"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B591" s="20" t="s">
         <v>43</v>
@@ -17240,34 +17242,32 @@
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="49">
-        <v>45177</v>
-      </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C592" s="13"/>
-      <c r="D592" s="39"/>
+      <c r="D592" s="39">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
       <c r="G592" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H592" s="39">
-        <v>1</v>
-      </c>
+      <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49">
-        <v>45198</v>
-      </c>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K592" s="49"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B593" s="20" t="s">
         <v>43</v>
@@ -17288,25 +17288,21 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45215</v>
-      </c>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="40">
-        <v>45231</v>
-      </c>
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C594" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C594" s="13"/>
       <c r="D594" s="39"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H594" s="39">
         <v>1</v>
@@ -17314,84 +17310,90 @@
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
       <c r="K594" s="49">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595" s="40"/>
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40">
+        <v>45200</v>
+      </c>
       <c r="B595" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C595" s="13"/>
-      <c r="D595" s="39">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D595" s="39"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="39"/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H595" s="39">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K595" s="49">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H596" s="39">
-        <v>2</v>
-      </c>
+      <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K596" s="49"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B597" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C597" s="13"/>
-      <c r="D597" s="39">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="39"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H597" s="39"/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H597" s="39">
+        <v>1</v>
+      </c>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K597" s="49">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="C598" s="13"/>
-      <c r="D598" s="39"/>
+      <c r="D598" s="39">
+        <v>2</v>
+      </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
       <c r="G598" s="13" t="str">
@@ -17401,15 +17403,15 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A599" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B599" s="20"/>
+      <c r="K598" s="49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="40"/>
+      <c r="B599" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
       <c r="E599" s="9"/>
@@ -17418,34 +17420,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H599" s="39"/>
+      <c r="H599" s="39">
+        <v>2</v>
+      </c>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="49"/>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K599" s="49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B600" s="20"/>
-      <c r="C600" s="13"/>
-      <c r="D600" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D600" s="39">
+        <v>2</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A601" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B601" s="20"/>
+      <c r="K600" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="40"/>
+      <c r="B601" s="20" t="s">
+        <v>351</v>
+      </c>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
@@ -17457,74 +17471,103 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K601" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
-      <c r="B602" s="20"/>
+      <c r="B602" s="20" t="s">
+        <v>251</v>
+      </c>
       <c r="C602" s="13"/>
-      <c r="D602" s="39"/>
+      <c r="D602" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13"/>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="49"/>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A603" s="40"/>
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="48" t="s">
+        <v>353</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="49"/>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A604" s="48"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="40">
+        <v>45292</v>
+      </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605" s="40"/>
+      <c r="K604" s="49"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="40">
+        <v>45323</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="49"/>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="40"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="40">
+        <v>45352</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17537,7 +17580,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="49"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17548,10 +17591,10 @@
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
-    </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="40"/>
+      <c r="K608" s="49"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="48"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -17563,7 +17606,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17576,7 +17619,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="49"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17587,9 +17630,9 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="49"/>
-    </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17600,9 +17643,9 @@
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="20"/>
-    </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K612" s="49"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17615,7 +17658,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17628,7 +17671,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17639,9 +17682,9 @@
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
-      <c r="K615" s="20"/>
-    </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K615" s="49"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17654,7 +17697,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="49"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17665,9 +17708,9 @@
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="49"/>
-    </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17680,7 +17723,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17693,7 +17736,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17706,7 +17749,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17717,9 +17760,9 @@
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
-      <c r="K621" s="20"/>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K621" s="49"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17732,7 +17775,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="49"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17745,7 +17788,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17758,7 +17801,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17771,7 +17814,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17784,7 +17827,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17795,9 +17838,9 @@
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
-      <c r="K627" s="20"/>
-    </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K627" s="49"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17808,9 +17851,9 @@
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
-      <c r="K628" s="49"/>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17823,7 +17866,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17836,7 +17879,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17849,7 +17892,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17860,9 +17903,9 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="49"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17873,9 +17916,9 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K633" s="49"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17888,8 +17931,8 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="48"/>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -17901,7 +17944,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17912,9 +17955,9 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17925,9 +17968,9 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K637" s="49"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17938,9 +17981,9 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="49"/>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17951,10 +17994,10 @@
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="49"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A640" s="40"/>
+      <c r="K639" s="20"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="48"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -17966,7 +18009,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17979,7 +18022,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="49"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17992,7 +18035,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18003,9 +18046,9 @@
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K643" s="49"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18016,9 +18059,9 @@
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K644" s="49"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18031,7 +18074,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18042,9 +18085,9 @@
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K646" s="49"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18057,7 +18100,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18070,7 +18113,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18083,7 +18126,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18096,7 +18139,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18109,7 +18152,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18122,7 +18165,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18135,8 +18178,8 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A654" s="48"/>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="39"/>
@@ -18148,7 +18191,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18161,7 +18204,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18174,7 +18217,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18187,7 +18230,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18200,8 +18243,8 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A659" s="40"/>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" s="48"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
       <c r="D659" s="39"/>
@@ -18213,7 +18256,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18226,7 +18269,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18239,7 +18282,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18252,7 +18295,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18265,7 +18308,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18278,7 +18321,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18291,7 +18334,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18304,8 +18347,8 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A667" s="48"/>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -18317,7 +18360,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18330,7 +18373,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18343,7 +18386,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18356,7 +18399,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18369,8 +18412,8 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A672" s="40"/>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" s="48"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
       <c r="D672" s="39"/>
@@ -18382,7 +18425,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18395,7 +18438,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18408,7 +18451,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18421,7 +18464,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18434,7 +18477,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18447,7 +18490,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18460,7 +18503,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18473,8 +18516,8 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A680" s="48"/>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
       <c r="D680" s="39"/>
@@ -18486,7 +18529,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18499,7 +18542,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18512,7 +18555,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18525,7 +18568,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18538,8 +18581,8 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A685" s="40"/>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" s="48"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
       <c r="D685" s="39"/>
@@ -18551,7 +18594,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18564,7 +18607,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18577,7 +18620,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18590,7 +18633,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18603,7 +18646,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18616,7 +18659,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18629,7 +18672,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18642,8 +18685,8 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A693" s="48"/>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -18655,7 +18698,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18668,7 +18711,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18681,7 +18724,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18694,7 +18737,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18707,8 +18750,8 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A698" s="40"/>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="48"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
       <c r="D698" s="39"/>
@@ -18720,7 +18763,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18733,7 +18776,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18746,7 +18789,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18759,7 +18802,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18772,7 +18815,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18785,7 +18828,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18798,7 +18841,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18811,8 +18854,8 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A706" s="48"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
@@ -18824,7 +18867,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18837,7 +18880,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18850,7 +18893,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18863,7 +18906,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18876,8 +18919,8 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A711" s="40"/>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" s="48"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
       <c r="D711" s="39"/>
@@ -18889,7 +18932,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18902,7 +18945,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18915,7 +18958,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18928,7 +18971,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18941,7 +18984,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18954,7 +18997,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18967,7 +19010,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18980,8 +19023,8 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A719" s="48"/>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
       <c r="D719" s="39"/>
@@ -18993,7 +19036,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19006,7 +19049,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19019,7 +19062,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19032,7 +19075,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19045,8 +19088,8 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A724" s="40"/>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" s="48"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
@@ -19058,7 +19101,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19071,7 +19114,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19084,7 +19127,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19097,7 +19140,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19110,7 +19153,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19123,7 +19166,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19136,7 +19179,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19149,7 +19192,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19162,7 +19205,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19175,7 +19218,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19188,7 +19231,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19201,7 +19244,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19214,7 +19257,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19227,7 +19270,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19240,7 +19283,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19253,7 +19296,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19266,7 +19309,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19279,7 +19322,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19292,7 +19335,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19305,7 +19348,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19318,7 +19361,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19331,7 +19374,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19344,7 +19387,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19357,7 +19400,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19370,7 +19413,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19383,7 +19426,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19396,7 +19439,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19409,7 +19452,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19422,7 +19465,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19435,7 +19478,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19448,7 +19491,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19461,7 +19504,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19474,7 +19517,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19487,7 +19530,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19500,7 +19543,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19513,7 +19556,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19526,7 +19569,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19539,7 +19582,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19552,7 +19595,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19565,7 +19608,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19578,7 +19621,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19591,7 +19634,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19604,7 +19647,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19617,7 +19660,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19630,7 +19673,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19643,7 +19686,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19656,7 +19699,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19669,7 +19712,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19682,7 +19725,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19695,7 +19738,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19708,7 +19751,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19721,7 +19764,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19734,7 +19777,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19747,87 +19790,72 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
       <c r="D778" s="39"/>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G778" s="13"/>
       <c r="H778" s="39"/>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
       <c r="D779" s="39"/>
       <c r="E779" s="9"/>
       <c r="F779" s="20"/>
-      <c r="G779" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G779" s="13"/>
       <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
       <c r="D780" s="39"/>
       <c r="E780" s="9"/>
       <c r="F780" s="20"/>
-      <c r="G780" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G780" s="13"/>
       <c r="H780" s="39"/>
       <c r="I780" s="9"/>
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
       <c r="D781" s="39"/>
       <c r="E781" s="9"/>
       <c r="F781" s="20"/>
-      <c r="G781" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G781" s="13"/>
       <c r="H781" s="39"/>
       <c r="I781" s="9"/>
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
       <c r="D782" s="39"/>
       <c r="E782" s="9"/>
       <c r="F782" s="20"/>
-      <c r="G782" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G782" s="13"/>
       <c r="H782" s="39"/>
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40"/>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19843,7 +19871,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40"/>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19859,7 +19887,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40"/>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19875,7 +19903,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40"/>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19891,21 +19919,101 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A787" s="41"/>
-      <c r="B787" s="15"/>
-      <c r="C787" s="42"/>
-      <c r="D787" s="43"/>
-      <c r="E787" s="51"/>
-      <c r="F787" s="15"/>
-      <c r="G787" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H787" s="43"/>
-      <c r="I787" s="51"/>
-      <c r="J787" s="12"/>
-      <c r="K787" s="15"/>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="40"/>
+      <c r="B787" s="20"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="20"/>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="39"/>
+      <c r="I787" s="9"/>
+      <c r="J787" s="11"/>
+      <c r="K787" s="20"/>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="40"/>
+      <c r="B788" s="20"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="20"/>
+      <c r="G788" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H788" s="39"/>
+      <c r="I788" s="9"/>
+      <c r="J788" s="11"/>
+      <c r="K788" s="20"/>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="40"/>
+      <c r="B789" s="20"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="20"/>
+      <c r="G789" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H789" s="39"/>
+      <c r="I789" s="9"/>
+      <c r="J789" s="11"/>
+      <c r="K789" s="20"/>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="40"/>
+      <c r="B790" s="20"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="20"/>
+      <c r="G790" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H790" s="39"/>
+      <c r="I790" s="9"/>
+      <c r="J790" s="11"/>
+      <c r="K790" s="20"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="40"/>
+      <c r="B791" s="20"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="20"/>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
+      <c r="I791" s="9"/>
+      <c r="J791" s="11"/>
+      <c r="K791" s="20"/>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A792" s="41"/>
+      <c r="B792" s="15"/>
+      <c r="C792" s="42"/>
+      <c r="D792" s="43"/>
+      <c r="E792" s="51"/>
+      <c r="F792" s="15"/>
+      <c r="G792" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H792" s="43"/>
+      <c r="I792" s="51"/>
+      <c r="J792" s="12"/>
+      <c r="K792" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19922,10 +20030,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19948,7 +20056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19956,21 +20064,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -19983,7 +20091,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20012,7 +20120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>39.622999999999998</v>
       </c>
@@ -20020,15 +20128,13 @@
         <v>79.125</v>
       </c>
       <c r="D3"/>
-      <c r="E3">
-        <v>2</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.30599999999999999</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -20040,17 +20146,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20071,7 +20177,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20098,7 +20204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20124,7 +20230,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20150,7 +20256,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20176,7 +20282,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20202,7 +20308,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20228,7 +20334,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20254,7 +20360,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20280,7 +20386,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20300,7 +20406,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20320,7 +20426,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20340,7 +20446,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20361,7 +20467,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20382,7 +20488,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20403,7 +20509,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20424,7 +20530,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20445,7 +20551,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20466,7 +20572,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20487,7 +20593,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20508,7 +20614,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20529,7 +20635,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20550,7 +20656,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20571,7 +20677,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20592,7 +20698,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20613,7 +20719,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20634,7 +20740,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20655,7 +20761,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20676,7 +20782,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20697,7 +20803,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20718,7 +20824,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20739,7 +20845,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20760,7 +20866,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20769,7 +20875,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20778,7 +20884,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20787,7 +20893,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20796,7 +20902,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20805,7 +20911,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20814,7 +20920,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20823,7 +20929,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20832,7 +20938,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20841,7 +20947,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20850,7 +20956,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20859,7 +20965,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20868,7 +20974,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20877,7 +20983,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20886,7 +20992,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20895,7 +21001,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20904,7 +21010,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20913,7 +21019,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20922,7 +21028,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20931,7 +21037,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20940,7 +21046,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20949,7 +21055,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20958,7 +21064,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20967,7 +21073,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20976,7 +21082,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20985,7 +21091,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20994,7 +21100,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21003,7 +21109,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21012,7 +21118,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21021,7 +21127,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="355">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1038,9 +1038,6 @@
     <t>11/23,24,25/2022</t>
   </si>
   <si>
-    <t>3/3,16/2023</t>
-  </si>
-  <si>
     <t>4/3,18/2023</t>
   </si>
   <si>
@@ -1089,12 +1086,6 @@
     <t>12/28,29/2023</t>
   </si>
   <si>
-    <t>SL(2.5-0-0)</t>
-  </si>
-  <si>
-    <t>12/4,14,18/2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -1102,6 +1093,12 @@
   </si>
   <si>
     <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>12/4,14/2023</t>
+  </si>
+  <si>
+    <t>3/3,16/2023 (6,16)</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1979,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2022,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2086,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2146,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2212,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2275,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2373,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2432,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2497,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2540,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2615,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2801,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2867,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2925,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2991,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3047,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3122,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3165,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3231,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3287,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3385,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3448,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3514,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K792" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K797" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3895,12 +3892,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M792"/>
+  <dimension ref="A2:M797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A582" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A579" activePane="bottomLeft"/>
       <selection activeCell="F11" sqref="F11"/>
-      <selection pane="bottomLeft" activeCell="F599" sqref="F599"/>
+      <selection pane="bottomLeft" activeCell="C583" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -3944,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
@@ -4063,7 +4060,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.88200000000006</v>
+        <v>154.80900000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4073,7 +4070,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.125</v>
+        <v>142.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16486,7 +16483,7 @@
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39">
@@ -16508,7 +16505,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39">
@@ -16574,7 +16571,7 @@
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C563" s="13"/>
       <c r="D563" s="39">
@@ -16590,7 +16587,7 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
@@ -16638,7 +16635,7 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
@@ -16666,7 +16663,7 @@
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39">
@@ -16682,7 +16679,7 @@
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
@@ -16710,7 +16707,7 @@
         <v>44743</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C569" s="13">
         <v>1.25</v>
@@ -16758,7 +16755,7 @@
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39">
@@ -16780,7 +16777,7 @@
         <v>44805</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
@@ -16804,7 +16801,7 @@
         <v>44835</v>
       </c>
       <c r="B573" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C573" s="13">
         <v>1.25</v>
@@ -17013,7 +17010,7 @@
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
       <c r="G582" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>Table1[[#This Row],[EARNED]]</f>
         <v>1.25</v>
       </c>
       <c r="H582" s="39">
@@ -17022,191 +17019,175 @@
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="49">
-        <v>44940</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C583" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D583" s="39"/>
+        <v>343</v>
+      </c>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39">
+        <v>1</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H583" s="39">
-        <v>2</v>
-      </c>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="49" t="s">
-        <v>334</v>
+      <c r="K583" s="49">
+        <v>44981</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C584" s="13"/>
-      <c r="D584" s="39"/>
+      <c r="D584" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
       <c r="G584" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="39">
-        <v>1</v>
-      </c>
+      <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="49">
-        <v>45013</v>
-      </c>
+      <c r="K584" s="49"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B585" s="20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
-      <c r="D585" s="39">
-        <v>2</v>
-      </c>
+      <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>2</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20" t="s">
-        <v>335</v>
+      <c r="K585" s="49" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D586" s="39">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H586" s="39"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39">
+        <v>1</v>
+      </c>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="49">
-        <v>45065</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C587" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D587" s="39"/>
+        <v>343</v>
+      </c>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39">
+        <v>1</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H587" s="39">
-        <v>1</v>
-      </c>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="49">
-        <v>45086</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C588" s="13"/>
-      <c r="D588" s="39"/>
+      <c r="D588" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H588" s="39">
-        <v>1</v>
-      </c>
+      <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="49">
-        <v>45096</v>
-      </c>
+      <c r="K588" s="49"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B589" s="20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C589" s="13">
         <v>1.25</v>
       </c>
-      <c r="D589" s="39"/>
+      <c r="D589" s="39">
+        <v>2</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
       <c r="G589" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H589" s="39">
-        <v>1</v>
-      </c>
+      <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49">
-        <v>45128</v>
+      <c r="K589" s="20" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
@@ -17217,70 +17198,72 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49"/>
+      <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B591" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C591" s="13">
         <v>1.25</v>
       </c>
-      <c r="D591" s="39"/>
+      <c r="D591" s="39">
+        <v>1</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
       <c r="G591" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H591" s="39">
-        <v>1</v>
-      </c>
+      <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="49">
-        <v>45142</v>
+        <v>45065</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="40"/>
+      <c r="A592" s="40">
+        <v>45078</v>
+      </c>
       <c r="B592" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C592" s="13"/>
-      <c r="D592" s="39">
-        <v>0.50600000000000001</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D592" s="39"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H592" s="39"/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H592" s="39">
+        <v>1</v>
+      </c>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="49"/>
+      <c r="K592" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C593" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C593" s="13"/>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H593" s="39">
         <v>1</v>
@@ -17288,21 +17271,25 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45177</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40"/>
+      <c r="A594" s="40">
+        <v>45108</v>
+      </c>
       <c r="B594" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C594" s="13"/>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="39"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H594" s="39">
         <v>1</v>
@@ -17310,107 +17297,105 @@
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
       <c r="K594" s="49">
-        <v>45198</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C595" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D595" s="39"/>
+        <v>352</v>
+      </c>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H595" s="39">
-        <v>1</v>
-      </c>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49">
-        <v>45215</v>
-      </c>
+      <c r="K595" s="49"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="40"/>
+      <c r="A596" s="40">
+        <v>45139</v>
+      </c>
       <c r="B596" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C596" s="13"/>
-      <c r="D596" s="39">
-        <v>5.4000000000000013E-2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="39"/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H596" s="39">
+        <v>1</v>
+      </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49"/>
+      <c r="K596" s="49">
+        <v>45142</v>
+      </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C597" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D597" s="39"/>
+        <v>202</v>
+      </c>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H597" s="39">
-        <v>1</v>
-      </c>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49">
-        <v>45243</v>
-      </c>
+      <c r="K597" s="49"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40"/>
+      <c r="A598" s="40">
+        <v>45170</v>
+      </c>
       <c r="B598" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C598" s="13"/>
-      <c r="D598" s="39">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C598" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D598" s="39"/>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H598" s="39"/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H598" s="39">
+        <v>1</v>
+      </c>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49" t="s">
-        <v>346</v>
+      <c r="K598" s="49">
+        <v>45177</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
@@ -17421,38 +17406,38 @@
         <v/>
       </c>
       <c r="H599" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="49" t="s">
-        <v>347</v>
+      <c r="K599" s="49">
+        <v>45198</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B600" s="20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C600" s="13">
         <v>1.25</v>
       </c>
-      <c r="D600" s="39">
-        <v>2</v>
-      </c>
+      <c r="D600" s="39"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
       <c r="G600" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H600" s="39"/>
+      <c r="H600" s="39">
+        <v>1</v>
+      </c>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20" t="s">
-        <v>350</v>
+      <c r="K600" s="49">
+        <v>45215</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
@@ -17461,7 +17446,9 @@
         <v>351</v>
       </c>
       <c r="C601" s="13"/>
-      <c r="D601" s="39"/>
+      <c r="D601" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="13" t="str">
@@ -17471,37 +17458,43 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20" t="s">
-        <v>352</v>
-      </c>
+      <c r="K601" s="49"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40"/>
+      <c r="A602" s="40">
+        <v>45231</v>
+      </c>
       <c r="B602" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C602" s="13"/>
-      <c r="D602" s="39">
-        <v>7.5000000000000011E-2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C602" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D602" s="39"/>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H602" s="39"/>
+      <c r="G602" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H602" s="39">
+        <v>1</v>
+      </c>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
+      <c r="K602" s="49">
+        <v>45243</v>
+      </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="B603" s="20"/>
+      <c r="A603" s="40"/>
+      <c r="B603" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C603" s="13"/>
-      <c r="D603" s="39"/>
+      <c r="D603" s="39">
+        <v>2</v>
+      </c>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
       <c r="G603" s="13" t="str">
@@ -17511,13 +17504,15 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="49" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B604" s="20"/>
+      <c r="A604" s="40"/>
+      <c r="B604" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
       <c r="E604" s="9"/>
@@ -17526,34 +17521,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H604" s="39"/>
+      <c r="H604" s="39">
+        <v>2</v>
+      </c>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="49"/>
+      <c r="K604" s="49" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B605" s="20"/>
-      <c r="C605" s="13"/>
-      <c r="D605" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B605" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D605" s="39">
+        <v>2</v>
+      </c>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="20" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B606" s="20"/>
+      <c r="A606" s="40"/>
+      <c r="B606" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
@@ -17562,71 +17569,102 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H606" s="39"/>
+      <c r="H606" s="39">
+        <v>2</v>
+      </c>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
-      <c r="B607" s="20"/>
+      <c r="B607" s="20" t="s">
+        <v>251</v>
+      </c>
       <c r="C607" s="13"/>
-      <c r="D607" s="39"/>
+      <c r="D607" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="49"/>
+      <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40"/>
+      <c r="A608" s="48" t="s">
+        <v>350</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
-      <c r="G608" s="13"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="49"/>
+      <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="48"/>
+      <c r="A609" s="40">
+        <v>45292</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20"/>
+      <c r="K609" s="49"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="40"/>
+      <c r="A610" s="40">
+        <v>45323</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="49"/>
+      <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>45352</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
@@ -17656,10 +17694,10 @@
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="20"/>
+      <c r="K613" s="49"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+      <c r="A614" s="48"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -17695,7 +17733,7 @@
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="49"/>
+      <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
@@ -17708,7 +17746,7 @@
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
-      <c r="K617" s="20"/>
+      <c r="K617" s="49"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
@@ -17747,7 +17785,7 @@
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20"/>
+      <c r="K620" s="49"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
@@ -17773,7 +17811,7 @@
       <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
-      <c r="K622" s="49"/>
+      <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
@@ -17825,7 +17863,7 @@
       <c r="H626" s="39"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
-      <c r="K626" s="20"/>
+      <c r="K626" s="49"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
@@ -17903,7 +17941,7 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="49"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
@@ -17916,7 +17954,7 @@
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="49"/>
+      <c r="K633" s="20"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
@@ -17968,7 +18006,7 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="49"/>
+      <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
@@ -17981,7 +18019,7 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="49"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
@@ -17997,7 +18035,7 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="48"/>
+      <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -18020,7 +18058,7 @@
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="49"/>
+      <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
@@ -18033,7 +18071,7 @@
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="49"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
@@ -18046,7 +18084,7 @@
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="49"/>
+      <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
@@ -18059,10 +18097,10 @@
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="49"/>
+      <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40"/>
+      <c r="A645" s="48"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
       <c r="D645" s="39"/>
@@ -18111,7 +18149,7 @@
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="49"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
@@ -18124,7 +18162,7 @@
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="49"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
@@ -18150,7 +18188,7 @@
       <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="49"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
@@ -18244,7 +18282,7 @@
       <c r="K658" s="20"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="48"/>
+      <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
       <c r="D659" s="39"/>
@@ -18309,7 +18347,7 @@
       <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="48"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="39"/>
@@ -18413,7 +18451,7 @@
       <c r="K671" s="20"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="48"/>
+      <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
       <c r="D672" s="39"/>
@@ -18478,7 +18516,7 @@
       <c r="K676" s="20"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40"/>
+      <c r="A677" s="48"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
       <c r="D677" s="39"/>
@@ -18582,7 +18620,7 @@
       <c r="K684" s="20"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="48"/>
+      <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
       <c r="D685" s="39"/>
@@ -18647,7 +18685,7 @@
       <c r="K689" s="20"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
+      <c r="A690" s="48"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
       <c r="D690" s="39"/>
@@ -18751,7 +18789,7 @@
       <c r="K697" s="20"/>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A698" s="48"/>
+      <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
       <c r="D698" s="39"/>
@@ -18816,7 +18854,7 @@
       <c r="K702" s="20"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="40"/>
+      <c r="A703" s="48"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
       <c r="D703" s="39"/>
@@ -18920,7 +18958,7 @@
       <c r="K710" s="20"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="48"/>
+      <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
       <c r="D711" s="39"/>
@@ -18985,7 +19023,7 @@
       <c r="K715" s="20"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
+      <c r="A716" s="48"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
@@ -19089,7 +19127,7 @@
       <c r="K723" s="20"/>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="48"/>
+      <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
@@ -19154,7 +19192,7 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
+      <c r="A729" s="48"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
       <c r="D729" s="39"/>
@@ -19862,10 +19900,7 @@
       <c r="D783" s="39"/>
       <c r="E783" s="9"/>
       <c r="F783" s="20"/>
-      <c r="G783" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G783" s="13"/>
       <c r="H783" s="39"/>
       <c r="I783" s="9"/>
       <c r="J783" s="11"/>
@@ -19878,10 +19913,7 @@
       <c r="D784" s="39"/>
       <c r="E784" s="9"/>
       <c r="F784" s="20"/>
-      <c r="G784" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G784" s="13"/>
       <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
@@ -19894,10 +19926,7 @@
       <c r="D785" s="39"/>
       <c r="E785" s="9"/>
       <c r="F785" s="20"/>
-      <c r="G785" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G785" s="13"/>
       <c r="H785" s="39"/>
       <c r="I785" s="9"/>
       <c r="J785" s="11"/>
@@ -19910,10 +19939,7 @@
       <c r="D786" s="39"/>
       <c r="E786" s="9"/>
       <c r="F786" s="20"/>
-      <c r="G786" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G786" s="13"/>
       <c r="H786" s="39"/>
       <c r="I786" s="9"/>
       <c r="J786" s="11"/>
@@ -19926,10 +19952,7 @@
       <c r="D787" s="39"/>
       <c r="E787" s="9"/>
       <c r="F787" s="20"/>
-      <c r="G787" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G787" s="13"/>
       <c r="H787" s="39"/>
       <c r="I787" s="9"/>
       <c r="J787" s="11"/>
@@ -20000,20 +20023,100 @@
       <c r="K791" s="20"/>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" s="41"/>
-      <c r="B792" s="15"/>
-      <c r="C792" s="42"/>
-      <c r="D792" s="43"/>
-      <c r="E792" s="51"/>
-      <c r="F792" s="15"/>
-      <c r="G792" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H792" s="43"/>
-      <c r="I792" s="51"/>
-      <c r="J792" s="12"/>
-      <c r="K792" s="15"/>
+      <c r="A792" s="40"/>
+      <c r="B792" s="20"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="39"/>
+      <c r="E792" s="9"/>
+      <c r="F792" s="20"/>
+      <c r="G792" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H792" s="39"/>
+      <c r="I792" s="9"/>
+      <c r="J792" s="11"/>
+      <c r="K792" s="20"/>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="40"/>
+      <c r="B793" s="20"/>
+      <c r="C793" s="13"/>
+      <c r="D793" s="39"/>
+      <c r="E793" s="9"/>
+      <c r="F793" s="20"/>
+      <c r="G793" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H793" s="39"/>
+      <c r="I793" s="9"/>
+      <c r="J793" s="11"/>
+      <c r="K793" s="20"/>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A794" s="40"/>
+      <c r="B794" s="20"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="39"/>
+      <c r="E794" s="9"/>
+      <c r="F794" s="20"/>
+      <c r="G794" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H794" s="39"/>
+      <c r="I794" s="9"/>
+      <c r="J794" s="11"/>
+      <c r="K794" s="20"/>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" s="40"/>
+      <c r="B795" s="20"/>
+      <c r="C795" s="13"/>
+      <c r="D795" s="39"/>
+      <c r="E795" s="9"/>
+      <c r="F795" s="20"/>
+      <c r="G795" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H795" s="39"/>
+      <c r="I795" s="9"/>
+      <c r="J795" s="11"/>
+      <c r="K795" s="20"/>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796" s="40"/>
+      <c r="B796" s="20"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="39"/>
+      <c r="E796" s="9"/>
+      <c r="F796" s="20"/>
+      <c r="G796" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H796" s="39"/>
+      <c r="I796" s="9"/>
+      <c r="J796" s="11"/>
+      <c r="K796" s="20"/>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A797" s="41"/>
+      <c r="B797" s="15"/>
+      <c r="C797" s="42"/>
+      <c r="D797" s="43"/>
+      <c r="E797" s="51"/>
+      <c r="F797" s="15"/>
+      <c r="G797" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H797" s="43"/>
+      <c r="I797" s="51"/>
+      <c r="J797" s="12"/>
+      <c r="K797" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20130,11 +20233,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.500000000000002E-2</v>
+        <v>5.2000000000000011E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
+++ b/REGULAR/CTO/DIMARANAN, PERPETUA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2210AF9-C331-4FEE-B818-B05549CF49F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="356">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1099,12 +1100,15 @@
   </si>
   <si>
     <t>3/3,16/2023 (6,16)</t>
+  </si>
+  <si>
+    <t>1/9,19/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1979,7 +1983,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2026,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2090,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2150,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2216,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2279,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2377,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2436,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2501,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2544,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2619,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2805,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2871,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2929,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2995,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3051,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3126,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3169,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3235,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3291,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3389,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3501,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3514,25 +3518,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K797" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K797" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3544,13 +3548,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3559,14 +3563,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3870,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3880,7 +3884,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3888,34 +3892,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A579" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A603" activePane="bottomLeft"/>
       <selection activeCell="F11" sqref="F11"/>
-      <selection pane="bottomLeft" activeCell="C583" sqref="C583"/>
+      <selection pane="bottomLeft" activeCell="B610" sqref="B610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3936,7 +3940,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3956,7 +3960,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3978,7 +3982,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3986,7 +3990,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3999,7 +4003,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4016,7 +4020,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4060,7 +4064,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>154.80900000000003</v>
+        <v>156.05900000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4070,13 +4074,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.125</v>
+        <v>143.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
@@ -4094,7 +4098,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>35996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>43</v>
@@ -4142,7 +4146,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>44</v>
@@ -4162,7 +4166,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>36031</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4210,7 +4214,7 @@
         <v>36034</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -4230,7 +4234,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>43</v>
@@ -4278,7 +4282,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>43</v>
@@ -4300,7 +4304,7 @@
         <v>36059</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -4322,7 +4326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4342,7 +4346,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36069</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>36082</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -4390,7 +4394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4412,7 +4416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
@@ -4432,7 +4436,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36100</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>43</v>
@@ -4480,7 +4484,7 @@
         <v>36119</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -4500,7 +4504,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -4546,7 +4550,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>42</v>
       </c>
@@ -4564,7 +4568,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>43</v>
@@ -4612,7 +4616,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>83</v>
@@ -4632,7 +4636,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36192</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>47</v>
@@ -4680,7 +4684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36220</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="15" t="s">
         <v>85</v>
@@ -4726,7 +4730,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36251</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36281</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -4800,7 +4804,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>43</v>
@@ -4822,7 +4826,7 @@
         <v>36304</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36312</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>43</v>
@@ -4870,7 +4874,7 @@
         <v>36328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>88</v>
@@ -4890,7 +4894,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>36350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>90</v>
@@ -4938,7 +4942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>88</v>
@@ -4958,7 +4962,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36373</v>
       </c>
@@ -4978,7 +4982,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36404</v>
       </c>
@@ -5002,7 +5006,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36434</v>
       </c>
@@ -5028,7 +5032,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -5048,7 +5052,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36465</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36495</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>59</v>
       </c>
@@ -5118,7 +5122,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5168,7 +5172,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>36222</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>97</v>
@@ -5214,7 +5218,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="49"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>43</v>
@@ -5262,7 +5266,7 @@
         <v>36274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>43</v>
@@ -5310,7 +5314,7 @@
         <v>36305</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>88</v>
@@ -5330,7 +5334,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36678</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>36682</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>43</v>
@@ -5378,7 +5382,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36708</v>
       </c>
@@ -5398,7 +5402,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>36762</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -5446,7 +5450,7 @@
         <v>36768</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>88</v>
@@ -5466,7 +5470,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -5486,7 +5490,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -5510,7 +5514,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -5560,7 +5564,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>60</v>
       </c>
@@ -5578,7 +5582,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -5602,7 +5606,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>102</v>
@@ -5622,7 +5626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5642,7 +5646,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36923</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36951</v>
       </c>
@@ -5688,7 +5692,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36982</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37012</v>
       </c>
@@ -5734,7 +5738,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37043</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>37047</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37073</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -5806,7 +5810,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>107</v>
@@ -5852,7 +5856,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37135</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>43</v>
@@ -5900,7 +5904,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>101</v>
@@ -5920,7 +5924,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37165</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -5966,7 +5970,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37196</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37226</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>88</v>
@@ -6038,7 +6042,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>61</v>
       </c>
@@ -6056,7 +6060,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37257</v>
       </c>
@@ -6082,7 +6086,7 @@
         <v>37274</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6102,7 +6106,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>110</v>
@@ -6122,7 +6126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37288</v>
       </c>
@@ -6148,7 +6152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -6168,7 +6172,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37316</v>
       </c>
@@ -6192,7 +6196,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="49"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37347</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>43</v>
@@ -6240,7 +6244,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6260,7 +6264,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37377</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>37385</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -6308,7 +6312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -6328,7 +6332,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37408</v>
       </c>
@@ -6352,7 +6356,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37438</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37469</v>
       </c>
@@ -6398,7 +6402,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37500</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>88</v>
@@ -6444,7 +6448,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -6468,7 +6472,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -6518,7 +6522,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>62</v>
       </c>
@@ -6536,7 +6540,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6580,7 +6584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>108</v>
@@ -6600,7 +6604,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37653</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -6646,7 +6650,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="49"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37681</v>
       </c>
@@ -6670,7 +6674,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37712</v>
       </c>
@@ -6690,7 +6694,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37742</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>102</v>
@@ -6736,7 +6740,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>43</v>
@@ -6758,7 +6762,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>43</v>
@@ -6780,7 +6784,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6826,7 +6830,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37803</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>127</v>
@@ -6872,7 +6876,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37834</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37865</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>37886</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>122</v>
@@ -6944,7 +6948,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37895</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>43</v>
@@ -6992,7 +6996,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>128</v>
@@ -7012,7 +7016,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -7032,7 +7036,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>43</v>
@@ -7080,7 +7084,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>130</v>
@@ -7100,7 +7104,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="49"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>63</v>
       </c>
@@ -7118,7 +7122,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="49"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37987</v>
       </c>
@@ -7142,7 +7146,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="49"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>110</v>
@@ -7162,7 +7166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>102</v>
@@ -7182,7 +7186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38018</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>38027</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>47</v>
@@ -7230,7 +7234,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>135</v>
@@ -7250,7 +7254,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="49"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7276,7 +7280,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>137</v>
@@ -7296,7 +7300,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38078</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>43</v>
@@ -7344,7 +7348,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>90</v>
@@ -7366,7 +7370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>108</v>
@@ -7386,7 +7390,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38108</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>55</v>
@@ -7434,7 +7438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>141</v>
@@ -7454,7 +7458,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="49"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38139</v>
       </c>
@@ -7478,7 +7482,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38169</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>144</v>
@@ -7524,7 +7528,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>38200</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>38203</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>145</v>
@@ -7572,7 +7576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7592,7 +7596,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38231</v>
       </c>
@@ -7618,7 +7622,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7638,7 +7642,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38261</v>
       </c>
@@ -7662,7 +7666,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="49"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38292</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>38293</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>43</v>
@@ -7710,7 +7714,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>150</v>
@@ -7730,7 +7734,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="49"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38322</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>38335</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>151</v>
@@ -7778,7 +7782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7798,7 +7802,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="49"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="48" t="s">
         <v>64</v>
       </c>
@@ -7816,7 +7820,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38353</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>102</v>
@@ -7860,7 +7864,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>128</v>
@@ -7880,7 +7884,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>102</v>
@@ -7900,7 +7904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38384</v>
       </c>
@@ -7924,7 +7928,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38412</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>43</v>
@@ -7972,7 +7976,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>43</v>
@@ -7994,7 +7998,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>151</v>
@@ -8016,7 +8020,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>43</v>
@@ -8038,7 +8042,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>132</v>
@@ -8058,7 +8062,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="49"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38443</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -8106,7 +8110,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>160</v>
@@ -8126,7 +8130,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38473</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>43</v>
@@ -8174,7 +8178,7 @@
         <v>38491</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>43</v>
@@ -8196,7 +8200,7 @@
         <v>38496</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>157</v>
@@ -8216,7 +8220,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>38504</v>
       </c>
@@ -8242,7 +8246,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38534</v>
       </c>
@@ -8266,7 +8270,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>38596</v>
       </c>
@@ -8314,7 +8318,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38626</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>166</v>
@@ -8360,7 +8364,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38657</v>
       </c>
@@ -8384,7 +8388,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>38687</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>159</v>
@@ -8432,7 +8436,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>43</v>
@@ -8454,7 +8458,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>43</v>
@@ -8476,7 +8480,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>168</v>
@@ -8496,7 +8500,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="48" t="s">
         <v>65</v>
       </c>
@@ -8514,7 +8518,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38718</v>
       </c>
@@ -8538,7 +8542,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38749</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>43</v>
@@ -8584,7 +8588,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -8604,7 +8608,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38777</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>172</v>
@@ -8650,7 +8654,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="49"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38808</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8696,7 +8700,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38838</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>174</v>
@@ -8742,7 +8746,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38869</v>
       </c>
@@ -8766,7 +8770,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38899</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>38915</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>176</v>
@@ -8812,7 +8816,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38930</v>
       </c>
@@ -8836,7 +8840,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38961</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>38971</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>43</v>
@@ -8884,7 +8888,7 @@
         <v>38978</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>166</v>
@@ -8904,7 +8908,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>38991</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>43</v>
@@ -8952,7 +8956,7 @@
         <v>39003</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>178</v>
@@ -8972,7 +8976,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39022</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>43</v>
@@ -9020,7 +9024,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>159</v>
@@ -9042,7 +9046,7 @@
         <v>39079</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>181</v>
@@ -9062,7 +9066,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39052</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>43</v>
@@ -9110,7 +9114,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>182</v>
@@ -9130,7 +9134,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="48" t="s">
         <v>66</v>
       </c>
@@ -9148,7 +9152,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="49"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39083</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>170</v>
@@ -9194,7 +9198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>90</v>
@@ -9216,7 +9220,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>183</v>
@@ -9236,7 +9240,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39114</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>39129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9282,7 +9286,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39142</v>
       </c>
@@ -9308,7 +9312,7 @@
         <v>39154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -9328,7 +9332,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39173</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>39183</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>159</v>
@@ -9376,7 +9380,7 @@
         <v>39190</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>159</v>
@@ -9398,7 +9402,7 @@
         <v>39199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>43</v>
@@ -9420,7 +9424,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9440,7 +9444,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39203</v>
       </c>
@@ -9466,7 +9470,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9488,7 +9492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>159</v>
@@ -9510,7 +9514,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>191</v>
@@ -9530,7 +9534,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39234</v>
       </c>
@@ -9554,7 +9558,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39264</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>43</v>
@@ -9602,7 +9606,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>99</v>
@@ -9622,7 +9626,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39295</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>43</v>
@@ -9670,7 +9674,7 @@
         <v>39303</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>194</v>
@@ -9690,7 +9694,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39326</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>39349</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>195</v>
@@ -9736,7 +9740,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39356</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>39373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>196</v>
@@ -9782,7 +9786,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>39387</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>197</v>
@@ -9828,7 +9832,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39417</v>
       </c>
@@ -9852,7 +9856,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>67</v>
       </c>
@@ -9870,7 +9874,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9894,7 +9898,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>102</v>
@@ -9914,7 +9918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -9934,7 +9938,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>39479</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -9980,7 +9984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>39508</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>202</v>
@@ -10026,7 +10030,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39539</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>43</v>
@@ -10074,7 +10078,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -10096,7 +10100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>39569</v>
       </c>
@@ -10120,7 +10124,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39600</v>
       </c>
@@ -10144,7 +10148,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39630</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>206</v>
@@ -10190,7 +10194,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39661</v>
       </c>
@@ -10216,7 +10220,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>88</v>
@@ -10236,7 +10240,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39692</v>
       </c>
@@ -10260,7 +10264,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39722</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>39752</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>179</v>
@@ -10308,7 +10312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39753</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>210</v>
@@ -10354,7 +10358,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>39783</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>68</v>
       </c>
@@ -10398,7 +10402,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>102</v>
@@ -10442,7 +10446,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39845</v>
       </c>
@@ -10466,7 +10470,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="49"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39873</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>108</v>
@@ -10510,7 +10514,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>39904</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>39917</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>159</v>
@@ -10558,7 +10562,7 @@
         <v>39967</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10578,7 +10582,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39934</v>
       </c>
@@ -10602,7 +10606,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>39965</v>
       </c>
@@ -10626,7 +10630,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="49"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39995</v>
       </c>
@@ -10652,7 +10656,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>159</v>
@@ -10674,7 +10678,7 @@
         <v>40031</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>107</v>
@@ -10694,7 +10698,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="49"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -10718,7 +10722,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>47</v>
@@ -10766,7 +10770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>101</v>
@@ -10786,7 +10790,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40087</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>219</v>
@@ -10832,7 +10836,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40118</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>43</v>
@@ -10880,7 +10884,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>88</v>
@@ -10900,7 +10904,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40148</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>222</v>
@@ -10946,7 +10950,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="48" t="s">
         <v>69</v>
       </c>
@@ -10964,7 +10968,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40179</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>224</v>
@@ -11008,7 +11012,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40210</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>102</v>
@@ -11054,7 +11058,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40238</v>
       </c>
@@ -11080,7 +11084,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>102</v>
@@ -11100,7 +11104,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>43</v>
@@ -11122,7 +11126,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>226</v>
@@ -11142,7 +11146,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -11162,7 +11166,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40299</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>229</v>
@@ -11208,7 +11212,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="49"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40330</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>43</v>
@@ -11256,7 +11260,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>88</v>
@@ -11276,7 +11280,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="49"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40360</v>
       </c>
@@ -11296,7 +11300,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40391</v>
       </c>
@@ -11322,7 +11326,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>215</v>
@@ -11342,7 +11346,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>40422</v>
       </c>
@@ -11362,7 +11366,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>40452</v>
       </c>
@@ -11386,7 +11390,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40483</v>
       </c>
@@ -11412,7 +11416,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>43</v>
@@ -11434,7 +11438,7 @@
         <v>40493</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>179</v>
@@ -11456,7 +11460,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>230</v>
@@ -11476,7 +11480,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40513</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>107</v>
@@ -11522,7 +11526,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="48" t="s">
         <v>70</v>
       </c>
@@ -11540,7 +11544,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40544</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>102</v>
@@ -11584,7 +11588,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>102</v>
@@ -11604,7 +11608,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40575</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40603</v>
       </c>
@@ -11656,7 +11660,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40634</v>
       </c>
@@ -11682,7 +11686,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>88</v>
@@ -11702,7 +11706,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40664</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>43</v>
@@ -11750,7 +11754,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>108</v>
@@ -11770,7 +11774,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40695</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>237</v>
@@ -11816,7 +11820,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="49"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>40725</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40756</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>40777</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40787</v>
       </c>
@@ -11892,7 +11896,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="49"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40817</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>43</v>
@@ -11940,7 +11944,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>40848</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11988,7 +11992,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>179</v>
@@ -12010,7 +12014,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>239</v>
@@ -12032,7 +12036,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>40878</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>115</v>
@@ -12078,7 +12082,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="49"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>71</v>
       </c>
@@ -12096,7 +12100,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="49"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40909</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>244</v>
@@ -12140,7 +12144,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="49"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40940</v>
       </c>
@@ -12160,7 +12164,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="49"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40969</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>102</v>
@@ -12206,7 +12210,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>151</v>
@@ -12228,7 +12232,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41000</v>
       </c>
@@ -12248,7 +12252,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41030</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>43</v>
@@ -12296,7 +12300,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>249</v>
@@ -12316,7 +12320,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="49"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41061</v>
       </c>
@@ -12336,7 +12340,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="49"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41091</v>
       </c>
@@ -12362,7 +12366,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41122</v>
       </c>
@@ -12382,7 +12386,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41153</v>
       </c>
@@ -12408,7 +12412,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>251</v>
@@ -12428,7 +12432,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="49"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41183</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>88</v>
@@ -12474,7 +12478,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="49"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41214</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41244</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>101</v>
@@ -12546,7 +12550,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="48" t="s">
         <v>72</v>
       </c>
@@ -12564,7 +12568,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41275</v>
       </c>
@@ -12584,7 +12588,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41306</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -12630,7 +12634,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>110</v>
@@ -12650,7 +12654,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>88</v>
@@ -12670,7 +12674,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -12690,7 +12694,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="49"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41395</v>
       </c>
@@ -12736,7 +12740,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41426</v>
       </c>
@@ -12760,7 +12764,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41456</v>
       </c>
@@ -12780,7 +12784,7 @@
       <c r="J394" s="12"/>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41487</v>
       </c>
@@ -12806,7 +12810,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41518</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -12852,7 +12856,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41579</v>
       </c>
@@ -12878,7 +12882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41609</v>
       </c>
@@ -12898,7 +12902,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="48" t="s">
         <v>73</v>
       </c>
@@ -12916,7 +12920,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>41640</v>
       </c>
@@ -12936,7 +12940,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41671</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>102</v>
@@ -12980,7 +12984,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41699</v>
       </c>
@@ -13000,7 +13004,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>41730</v>
       </c>
@@ -13020,7 +13024,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>41760</v>
       </c>
@@ -13040,7 +13044,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>41791</v>
       </c>
@@ -13066,7 +13070,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>43</v>
@@ -13086,7 +13090,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>41821</v>
       </c>
@@ -13112,7 +13116,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>41852</v>
       </c>
@@ -13132,7 +13136,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>41883</v>
       </c>
@@ -13158,7 +13162,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41913</v>
       </c>
@@ -13178,7 +13182,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41944</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>151</v>
@@ -13226,7 +13230,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>43</v>
@@ -13248,7 +13252,7 @@
         <v>41970</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>41974</v>
       </c>
@@ -13268,7 +13272,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>74</v>
       </c>
@@ -13286,7 +13290,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42005</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>102</v>
@@ -13330,7 +13334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>88</v>
@@ -13350,7 +13354,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -13376,7 +13380,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -13422,7 +13426,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42095</v>
       </c>
@@ -13442,7 +13446,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="49"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42125</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42156</v>
       </c>
@@ -13494,7 +13498,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>47</v>
@@ -13516,7 +13520,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42186</v>
       </c>
@@ -13542,7 +13546,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>43</v>
@@ -13564,7 +13568,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42217</v>
       </c>
@@ -13590,7 +13594,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>90</v>
@@ -13612,7 +13616,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>55</v>
@@ -13634,7 +13638,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42248</v>
       </c>
@@ -13654,7 +13658,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42278</v>
       </c>
@@ -13680,7 +13684,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42309</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>43</v>
@@ -13728,7 +13732,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>43</v>
@@ -13750,7 +13754,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>42339</v>
       </c>
@@ -13770,7 +13774,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>75</v>
       </c>
@@ -13788,7 +13792,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>42370</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>102</v>
@@ -13832,7 +13836,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>102</v>
@@ -13852,7 +13856,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42401</v>
       </c>
@@ -13872,7 +13876,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42430</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -13920,7 +13924,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42461</v>
       </c>
@@ -13946,7 +13950,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42491</v>
       </c>
@@ -13966,7 +13970,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42522</v>
       </c>
@@ -13986,7 +13990,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42552</v>
       </c>
@@ -14006,7 +14010,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42583</v>
       </c>
@@ -14026,7 +14030,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42614</v>
       </c>
@@ -14046,7 +14050,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42644</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42675</v>
       </c>
@@ -14098,7 +14102,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>45</v>
@@ -14120,7 +14124,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42705</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>76</v>
       </c>
@@ -14164,7 +14168,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42736</v>
       </c>
@@ -14188,7 +14192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42767</v>
       </c>
@@ -14212,7 +14216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42795</v>
       </c>
@@ -14238,7 +14242,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>43</v>
@@ -14260,7 +14264,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42826</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>43</v>
@@ -14308,7 +14312,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>42856</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>42887</v>
       </c>
@@ -14360,7 +14364,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -14382,7 +14386,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>42917</v>
       </c>
@@ -14402,7 +14406,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>42948</v>
       </c>
@@ -14428,7 +14432,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>42979</v>
       </c>
@@ -14454,7 +14458,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43009</v>
       </c>
@@ -14480,7 +14484,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43040</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>55</v>
@@ -14528,7 +14532,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -14550,7 +14554,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43070</v>
       </c>
@@ -14576,7 +14580,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="48" t="s">
         <v>77</v>
       </c>
@@ -14594,7 +14598,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43101</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>102</v>
@@ -14638,7 +14642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43132</v>
       </c>
@@ -14664,7 +14668,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43160</v>
       </c>
@@ -14684,7 +14688,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="49"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43191</v>
       </c>
@@ -14710,7 +14714,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>43</v>
@@ -14732,7 +14736,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43221</v>
       </c>
@@ -14758,7 +14762,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14780,7 +14784,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43252</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43282</v>
       </c>
@@ -14832,7 +14836,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43313</v>
       </c>
@@ -14852,7 +14856,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43344</v>
       </c>
@@ -14872,7 +14876,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43374</v>
       </c>
@@ -14898,7 +14902,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -14924,7 +14928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43435</v>
       </c>
@@ -14944,7 +14948,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>78</v>
       </c>
@@ -14962,7 +14966,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43466</v>
       </c>
@@ -14986,7 +14990,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>43</v>
@@ -15008,7 +15012,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43497</v>
       </c>
@@ -15034,7 +15038,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>102</v>
@@ -15054,7 +15058,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>43</v>
@@ -15076,7 +15080,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15100,7 +15104,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43556</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>43</v>
@@ -15148,7 +15152,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43586</v>
       </c>
@@ -15174,7 +15178,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43617</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>43</v>
@@ -15222,7 +15226,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43647</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>43</v>
@@ -15270,7 +15274,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43678</v>
       </c>
@@ -15296,7 +15300,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>47</v>
@@ -15318,7 +15322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>43</v>
@@ -15340,7 +15344,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>43</v>
@@ -15362,7 +15366,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>43</v>
@@ -15384,7 +15388,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43709</v>
       </c>
@@ -15408,7 +15412,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>301</v>
@@ -15430,7 +15434,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
@@ -15456,7 +15460,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>304</v>
@@ -15478,7 +15482,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>43</v>
@@ -15500,7 +15504,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43770</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>43</v>
@@ -15548,7 +15552,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15570,7 +15574,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>55</v>
@@ -15592,7 +15596,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>47</v>
@@ -15614,7 +15618,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43800</v>
       </c>
@@ -15634,7 +15638,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>79</v>
       </c>
@@ -15652,7 +15656,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43831</v>
       </c>
@@ -15676,7 +15680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>309</v>
@@ -15696,7 +15700,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>110</v>
@@ -15716,7 +15720,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43862</v>
       </c>
@@ -15742,7 +15746,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43891</v>
       </c>
@@ -15762,7 +15766,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43922</v>
       </c>
@@ -15782,7 +15786,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="49"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43952</v>
       </c>
@@ -15802,7 +15806,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="49"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43983</v>
       </c>
@@ -15828,7 +15832,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>47</v>
@@ -15850,7 +15854,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44013</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>90</v>
@@ -15898,7 +15902,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44044</v>
       </c>
@@ -15918,7 +15922,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44075</v>
       </c>
@@ -15938,7 +15942,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44105</v>
       </c>
@@ -15958,7 +15962,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="49"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44136</v>
       </c>
@@ -15978,7 +15982,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44166</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="48" t="s">
         <v>80</v>
       </c>
@@ -16022,7 +16026,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44197</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44228</v>
       </c>
@@ -16072,7 +16076,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44256</v>
       </c>
@@ -16092,7 +16096,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44287</v>
       </c>
@@ -16112,7 +16116,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44317</v>
       </c>
@@ -16132,7 +16136,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44348</v>
       </c>
@@ -16158,7 +16162,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>102</v>
@@ -16178,7 +16182,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16198,7 +16202,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16218,7 +16222,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16244,7 +16248,7 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>319</v>
@@ -16264,7 +16268,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44470</v>
       </c>
@@ -16284,7 +16288,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44501</v>
       </c>
@@ -16308,7 +16312,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>90</v>
@@ -16354,7 +16358,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="48" t="s">
         <v>81</v>
       </c>
@@ -16372,7 +16376,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44562</v>
       </c>
@@ -16392,7 +16396,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44593</v>
       </c>
@@ -16412,7 +16416,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44621</v>
       </c>
@@ -16436,7 +16440,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>47</v>
@@ -16458,7 +16462,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>327</v>
@@ -16480,7 +16484,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>343</v>
@@ -16502,7 +16506,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>344</v>
@@ -16522,7 +16526,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="49"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -16542,7 +16546,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44682</v>
       </c>
@@ -16568,7 +16572,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>341</v>
@@ -16590,7 +16594,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44713</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>90</v>
@@ -16638,7 +16642,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>43</v>
@@ -16660,7 +16664,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>341</v>
@@ -16682,7 +16686,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>44</v>
@@ -16702,7 +16706,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="49"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
@@ -16726,7 +16730,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -16752,7 +16756,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>337</v>
@@ -16772,7 +16776,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44805</v>
       </c>
@@ -16796,7 +16800,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44835</v>
       </c>
@@ -16820,7 +16824,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>44866</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>94</v>
@@ -16868,7 +16872,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>210</v>
@@ -16888,7 +16892,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="49"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>44896</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>44</v>
@@ -16934,7 +16938,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="48" t="s">
         <v>82</v>
       </c>
@@ -16952,7 +16956,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>44927</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>102</v>
@@ -16996,7 +17000,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>44958</v>
       </c>
@@ -17022,7 +17026,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>343</v>
@@ -17044,7 +17048,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>99</v>
@@ -17064,7 +17068,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="49"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44986</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>43</v>
@@ -17112,7 +17116,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>343</v>
@@ -17134,7 +17138,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>101</v>
@@ -17154,7 +17158,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="49"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>45017</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>58</v>
@@ -17200,7 +17204,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>45047</v>
       </c>
@@ -17226,7 +17230,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>45078</v>
       </c>
@@ -17252,7 +17256,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>43</v>
@@ -17274,7 +17278,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>45108</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>352</v>
@@ -17320,7 +17324,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="49"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>45139</v>
       </c>
@@ -17346,7 +17350,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>202</v>
@@ -17366,7 +17370,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="49"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>45170</v>
       </c>
@@ -17392,7 +17396,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>43</v>
@@ -17414,7 +17418,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>45200</v>
       </c>
@@ -17440,7 +17444,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>351</v>
@@ -17460,7 +17464,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="49"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>45231</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>55</v>
@@ -17508,7 +17512,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>47</v>
@@ -17530,7 +17534,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>45261</v>
       </c>
@@ -17556,7 +17560,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>47</v>
@@ -17578,7 +17582,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>251</v>
@@ -17598,7 +17602,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="48" t="s">
         <v>350</v>
       </c>
@@ -17616,25 +17620,31 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>45292</v>
       </c>
-      <c r="B609" s="20"/>
-      <c r="C609" s="13"/>
+      <c r="B609" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C609" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G609" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="49"/>
-    </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K609" s="49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>45323</v>
       </c>
@@ -17652,7 +17662,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>45352</v>
       </c>
@@ -17670,7 +17680,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17683,7 +17693,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="49"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17696,7 +17706,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="49"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="48"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17709,7 +17719,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17722,7 +17732,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="49"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17735,7 +17745,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17748,7 +17758,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="49"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17761,7 +17771,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17774,7 +17784,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17787,7 +17797,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="49"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17800,7 +17810,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="49"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17813,7 +17823,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17826,7 +17836,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17839,7 +17849,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17852,7 +17862,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17865,7 +17875,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="49"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17878,7 +17888,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="49"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17891,7 +17901,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17904,7 +17914,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17917,7 +17927,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17930,7 +17940,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17943,7 +17953,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="49"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17956,7 +17966,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17969,7 +17979,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17982,7 +17992,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17995,7 +18005,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18008,7 +18018,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18021,7 +18031,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="49"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18034,7 +18044,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18047,7 +18057,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18060,7 +18070,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18073,7 +18083,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="49"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18086,7 +18096,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18099,7 +18109,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="48"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18112,7 +18122,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18125,7 +18135,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="49"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18138,7 +18148,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18151,7 +18161,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="49"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18164,7 +18174,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="49"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18177,7 +18187,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18190,7 +18200,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="49"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18203,7 +18213,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18216,7 +18226,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18229,7 +18239,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18242,7 +18252,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18255,7 +18265,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18268,7 +18278,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18281,7 +18291,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18294,7 +18304,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18307,7 +18317,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18320,7 +18330,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18333,7 +18343,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18346,7 +18356,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="48"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18359,7 +18369,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18372,7 +18382,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18385,7 +18395,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18398,7 +18408,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18411,7 +18421,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18424,7 +18434,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18437,7 +18447,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18450,7 +18460,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18463,7 +18473,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18476,7 +18486,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18489,7 +18499,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18502,7 +18512,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18515,7 +18525,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="48"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18528,7 +18538,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18541,7 +18551,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18554,7 +18564,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18567,7 +18577,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18580,7 +18590,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18593,7 +18603,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18606,7 +18616,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18619,7 +18629,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18632,7 +18642,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18645,7 +18655,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18658,7 +18668,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18671,7 +18681,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18684,7 +18694,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="48"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18697,7 +18707,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18710,7 +18720,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18723,7 +18733,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18736,7 +18746,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18749,7 +18759,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18762,7 +18772,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18775,7 +18785,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18788,7 +18798,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18801,7 +18811,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18814,7 +18824,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18827,7 +18837,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18840,7 +18850,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18853,7 +18863,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="48"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18866,7 +18876,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18879,7 +18889,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18892,7 +18902,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18905,7 +18915,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18918,7 +18928,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18931,7 +18941,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18944,7 +18954,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18957,7 +18967,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18970,7 +18980,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18983,7 +18993,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18996,7 +19006,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19009,7 +19019,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19022,7 +19032,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="48"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19035,7 +19045,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19048,7 +19058,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19061,7 +19071,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19074,7 +19084,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19087,7 +19097,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19100,7 +19110,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19113,7 +19123,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19126,7 +19136,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19139,7 +19149,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19152,7 +19162,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19165,7 +19175,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19178,7 +19188,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19191,7 +19201,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="48"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19204,7 +19214,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19217,7 +19227,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19230,7 +19240,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19243,7 +19253,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19256,7 +19266,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19269,7 +19279,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19282,7 +19292,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19295,7 +19305,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19308,7 +19318,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19321,7 +19331,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19334,7 +19344,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19347,7 +19357,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19360,7 +19370,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19373,7 +19383,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19386,7 +19396,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19399,7 +19409,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19412,7 +19422,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19425,7 +19435,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19438,7 +19448,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19451,7 +19461,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19464,7 +19474,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19477,7 +19487,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19490,7 +19500,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19503,7 +19513,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19516,7 +19526,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19529,7 +19539,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19542,7 +19552,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19555,7 +19565,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19568,7 +19578,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19581,7 +19591,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19594,7 +19604,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19607,7 +19617,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19620,7 +19630,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19633,7 +19643,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19646,7 +19656,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19659,7 +19669,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19672,7 +19682,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19685,7 +19695,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19698,7 +19708,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19711,7 +19721,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19724,7 +19734,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19737,7 +19747,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19750,7 +19760,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19763,7 +19773,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19776,7 +19786,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19789,7 +19799,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19802,7 +19812,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19815,7 +19825,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19828,7 +19838,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19841,7 +19851,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19854,7 +19864,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19867,7 +19877,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19880,7 +19890,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19893,7 +19903,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40"/>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19906,7 +19916,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40"/>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19919,7 +19929,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40"/>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19932,7 +19942,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40"/>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19945,7 +19955,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40"/>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19958,7 +19968,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40"/>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -19974,7 +19984,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40"/>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -19990,7 +20000,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40"/>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20006,7 +20016,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40"/>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20022,7 +20032,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40"/>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20038,7 +20048,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40"/>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20054,7 +20064,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40"/>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20070,7 +20080,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40"/>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20086,7 +20096,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40"/>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20102,7 +20112,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="41"/>
       <c r="B797" s="15"/>
       <c r="C797" s="42"/>
@@ -20133,10 +20143,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20159,7 +20169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20167,21 +20177,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
@@ -20194,7 +20204,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20223,7 +20233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>39.622999999999998</v>
       </c>
@@ -20249,17 +20259,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20280,7 +20290,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20307,7 +20317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20333,7 +20343,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20359,7 +20369,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20385,7 +20395,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20411,7 +20421,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20437,7 +20447,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20463,7 +20473,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20489,7 +20499,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20509,7 +20519,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20529,7 +20539,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20549,7 +20559,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20570,7 +20580,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20591,7 +20601,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20612,7 +20622,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20633,7 +20643,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20654,7 +20664,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20675,7 +20685,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20696,7 +20706,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20717,7 +20727,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20738,7 +20748,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20759,7 +20769,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20780,7 +20790,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20801,7 +20811,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20822,7 +20832,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20843,7 +20853,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20864,7 +20874,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20885,7 +20895,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20906,7 +20916,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20927,7 +20937,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20948,7 +20958,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20969,7 +20979,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20978,7 +20988,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20987,7 +20997,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20996,7 +21006,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21005,7 +21015,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21014,7 +21024,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21023,7 +21033,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21032,7 +21042,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21041,7 +21051,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21050,7 +21060,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21059,7 +21069,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21068,7 +21078,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21077,7 +21087,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21086,7 +21096,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21095,7 +21105,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21104,7 +21114,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21113,7 +21123,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21122,7 +21132,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21131,7 +21141,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21140,7 +21150,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21149,7 +21159,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21158,7 +21168,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21167,7 +21177,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21176,7 +21186,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21185,7 +21195,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21194,7 +21204,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21203,7 +21213,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21212,7 +21222,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21221,7 +21231,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21230,7 +21240,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
